--- a/www/publications_manifest.xlsx
+++ b/www/publications_manifest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vchung/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600E8BCB-7D7C-0240-A980-57304C6865F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAB72BB-04A3-4045-82C1-37EEF60DBD22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="460" windowWidth="24600" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="457">
   <si>
     <t>doi</t>
   </si>
@@ -97,12 +97,6 @@
     <t>srpUrls</t>
   </si>
   <si>
-    <t>dpgapAccns</t>
-  </si>
-  <si>
-    <t>dpgapUrls</t>
-  </si>
-  <si>
     <t>dataset</t>
   </si>
   <si>
@@ -622,9 +616,6 @@
     <t>Whole Transcriptome Sequencing</t>
   </si>
   <si>
-    <t>Whole Transcriptome Sequencing, Whole Exome Sequencing</t>
-  </si>
-  <si>
     <t>Widefield Fluorescence Microscopy</t>
   </si>
   <si>
@@ -644,13 +635,784 @@
   </si>
   <si>
     <t>STRING</t>
+  </si>
+  <si>
+    <t>dbgapAccns</t>
+  </si>
+  <si>
+    <t>dbgapUrls</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Pan-cancer</t>
+  </si>
+  <si>
+    <t>Acinar Cell Carcinoma</t>
+  </si>
+  <si>
+    <t>Acute Lymphoblastic Leukemia</t>
+  </si>
+  <si>
+    <t>Acute Myeloid Leukemia</t>
+  </si>
+  <si>
+    <t>Acute Promyelolitic Leukemia</t>
+  </si>
+  <si>
+    <t>Adenocarcinoma</t>
+  </si>
+  <si>
+    <t>Astrocytoma</t>
+  </si>
+  <si>
+    <t>B Acute Lymphoblastic Leukemia</t>
+  </si>
+  <si>
+    <t>Barrett Esophagus</t>
+  </si>
+  <si>
+    <t>Basal Cell Neoplasm</t>
+  </si>
+  <si>
+    <t>Bile Duct Neoplasm</t>
+  </si>
+  <si>
+    <t>Bladder Neoplasm</t>
+  </si>
+  <si>
+    <t>Bladder Small Cell Carcinoma</t>
+  </si>
+  <si>
+    <t>Bone Marrow Neoplasm</t>
+  </si>
+  <si>
+    <t>Bone Neoplasm</t>
+  </si>
+  <si>
+    <t>Brain Neoplasm</t>
+  </si>
+  <si>
+    <t>Breast Tumor</t>
+  </si>
+  <si>
+    <t>Burkitt Leukemia</t>
+  </si>
+  <si>
+    <t>Carcinoma</t>
+  </si>
+  <si>
+    <t>Carcinoma in situ</t>
+  </si>
+  <si>
+    <t>Carcinoma in situ of Bladder</t>
+  </si>
+  <si>
+    <t>Carcinoma in situ of Breast</t>
+  </si>
+  <si>
+    <t>Carcinoma in situ of Bronchus and Lung</t>
+  </si>
+  <si>
+    <t>Carcinoma in situ of Cervix Uteri</t>
+  </si>
+  <si>
+    <t>Carcinoma in situ of Colon</t>
+  </si>
+  <si>
+    <t>Carcinoma in situ of Esophagus</t>
+  </si>
+  <si>
+    <t>Carcinoma in situ of prostate</t>
+  </si>
+  <si>
+    <t>Carcinoma in situ of Skin</t>
+  </si>
+  <si>
+    <t>Central Nervous System Neoplasm</t>
+  </si>
+  <si>
+    <t>Cerebellar Neoplasm</t>
+  </si>
+  <si>
+    <t>Cervical Small Cell Carcinoma</t>
+  </si>
+  <si>
+    <t>Childhood Bladder Carcinoma</t>
+  </si>
+  <si>
+    <t>Cholangiocarcinoma</t>
+  </si>
+  <si>
+    <t>Chondroma</t>
+  </si>
+  <si>
+    <t>Chronic Lymphocytic Leukemia</t>
+  </si>
+  <si>
+    <t>Chronic myeloid leukemia</t>
+  </si>
+  <si>
+    <t>Colon Adenocarcinoma</t>
+  </si>
+  <si>
+    <t>Colon Adenosquamous Carcinoma</t>
+  </si>
+  <si>
+    <t>Colon Small Cell Neuroendocrine Carcinoma</t>
+  </si>
+  <si>
+    <t>Colon Squamous Cell Carcinoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colorectal Adenocarcinoma </t>
+  </si>
+  <si>
+    <t>Colorectal Tumor</t>
+  </si>
+  <si>
+    <t>Diffuse Large B-Cell Lymphoma</t>
+  </si>
+  <si>
+    <t>Dysplastic Nevus Syndrome</t>
+  </si>
+  <si>
+    <t>Endometrial Carcinoma</t>
+  </si>
+  <si>
+    <t>Endometrial Neoplasm</t>
+  </si>
+  <si>
+    <t>Ependymoma</t>
+  </si>
+  <si>
+    <t>Fibrosarcoma</t>
+  </si>
+  <si>
+    <t>Gastric Adenocarcinoma</t>
+  </si>
+  <si>
+    <t>Glioblastoma</t>
+  </si>
+  <si>
+    <t>Glioma</t>
+  </si>
+  <si>
+    <t>Head and Neck Carcinoma</t>
+  </si>
+  <si>
+    <t>Head and Neck Neoplasm</t>
+  </si>
+  <si>
+    <t>Hodgkin Lymphoma</t>
+  </si>
+  <si>
+    <t>Intestinal Neoplasm</t>
+  </si>
+  <si>
+    <t>Intraductal Carcinoma in situ of Breast</t>
+  </si>
+  <si>
+    <t>Invasive Ductal Breast Carcinoma</t>
+  </si>
+  <si>
+    <t>Juvenile Myelomonocytic Leukemia</t>
+  </si>
+  <si>
+    <t>Leiomyoma</t>
+  </si>
+  <si>
+    <t>Leukemia</t>
+  </si>
+  <si>
+    <t>Liver and Intrahepatic Bile Duct Carcinoma</t>
+  </si>
+  <si>
+    <t>Liver Neoplasm</t>
+  </si>
+  <si>
+    <t>Lobular Carcinoma in situ of Breast</t>
+  </si>
+  <si>
+    <t>Luminal A Breast Carcinoma</t>
+  </si>
+  <si>
+    <t>Luminal B Breast Carcinoma</t>
+  </si>
+  <si>
+    <t>Lung Adenocarcinoma</t>
+  </si>
+  <si>
+    <t>Lung Neoplasm</t>
+  </si>
+  <si>
+    <t>Lung Non-Small Cell Carcinoma</t>
+  </si>
+  <si>
+    <t>Lung Small Cell Carcinoma</t>
+  </si>
+  <si>
+    <t>Lymphoblastic Lymphoma</t>
+  </si>
+  <si>
+    <t>Lymphoid Leukemia</t>
+  </si>
+  <si>
+    <t>Lymphoma</t>
+  </si>
+  <si>
+    <t>Malignant Neoplasm of Brain</t>
+  </si>
+  <si>
+    <t>Malignant Neoplasm of Ovary</t>
+  </si>
+  <si>
+    <t>Malignant Neoplasm of Pancreas</t>
+  </si>
+  <si>
+    <t>Malignant Peripheral Nerve Sheath Tumor</t>
+  </si>
+  <si>
+    <t>Malignant Peripheral Nerve Tissue Tumor</t>
+  </si>
+  <si>
+    <t>Mantle cell lymphoma</t>
+  </si>
+  <si>
+    <t>Marginal Zone Lymphoma</t>
+  </si>
+  <si>
+    <t>Medulloblastoma</t>
+  </si>
+  <si>
+    <t>Melanoma</t>
+  </si>
+  <si>
+    <t>Monoclonal Gammopathy of Undetermined Significance</t>
+  </si>
+  <si>
+    <t>Mouth Neoplasm</t>
+  </si>
+  <si>
+    <t>Mucosa-Associated Lymphoid Tissue Lymphoma</t>
+  </si>
+  <si>
+    <t>Multiple Myeloma</t>
+  </si>
+  <si>
+    <t>Myelodysplastic Syndrome</t>
+  </si>
+  <si>
+    <t>Myoepithelioma</t>
+  </si>
+  <si>
+    <t>Neuroblastoma</t>
+  </si>
+  <si>
+    <t>Neuroendocrine Neoplasm</t>
+  </si>
+  <si>
+    <t>Neurofibromatosis 1</t>
+  </si>
+  <si>
+    <t>Non-Hodgkin Lymphoma</t>
+  </si>
+  <si>
+    <t>Oral Cavity Squamous Cell Carcinoma</t>
+  </si>
+  <si>
+    <t>Oropharyngeal Neoplasm</t>
+  </si>
+  <si>
+    <t>Osteosarcoma</t>
+  </si>
+  <si>
+    <t>Ovarian Neoplasm</t>
+  </si>
+  <si>
+    <t>Pancreatic Acinar Cell Carcinoma</t>
+  </si>
+  <si>
+    <t>Pancreatic Adenocarcinoma</t>
+  </si>
+  <si>
+    <t>Pancreatic Adenosquamous Carcinoma</t>
+  </si>
+  <si>
+    <t>Pancreatic Neoplasm</t>
+  </si>
+  <si>
+    <t>Pancreatic Neuroendocrine Carcinoma</t>
+  </si>
+  <si>
+    <t>Papillary Breast Carcinoma</t>
+  </si>
+  <si>
+    <t>Precursor B-Cell Lymphoblastic Leukemia-Lymphoma</t>
+  </si>
+  <si>
+    <t>Primary Myelofibrosis</t>
+  </si>
+  <si>
+    <t>Prostate Neoplasm</t>
+  </si>
+  <si>
+    <t>Rectal Adenocarcinoma</t>
+  </si>
+  <si>
+    <t>Refractory Bladder Carcinoma</t>
+  </si>
+  <si>
+    <t>Renal Cell Carcinoma</t>
+  </si>
+  <si>
+    <t>Rhabdoid Tumor</t>
+  </si>
+  <si>
+    <t>Sarcoma</t>
+  </si>
+  <si>
+    <t>Skin Neoplasm</t>
+  </si>
+  <si>
+    <t>Splenic Neoplasm</t>
+  </si>
+  <si>
+    <t>Squamous Cell Carcinoma</t>
+  </si>
+  <si>
+    <t>Squamous Cell Carcinoma of Head and Neck</t>
+  </si>
+  <si>
+    <t>Stomach Neoplasm</t>
+  </si>
+  <si>
+    <t>Superficial Bladder Carcinoma</t>
+  </si>
+  <si>
+    <t>T Acute Lymphoblastic Leukemia</t>
+  </si>
+  <si>
+    <t>T-Cell Lymphoma</t>
+  </si>
+  <si>
+    <t>Triple-Negative Breast Cancer Finding</t>
+  </si>
+  <si>
+    <t>Tubular Breast Carcinoma</t>
+  </si>
+  <si>
+    <t>Uterine Cervical Neoplasm</t>
+  </si>
+  <si>
+    <t>Uveal Melanoma</t>
+  </si>
+  <si>
+    <t>Uveal Neoplasm</t>
+  </si>
+  <si>
+    <t>Abdominal esophagus</t>
+  </si>
+  <si>
+    <t>Acoustic nerve</t>
+  </si>
+  <si>
+    <t>Anal canal</t>
+  </si>
+  <si>
+    <t>Anus</t>
+  </si>
+  <si>
+    <t>Appendix</t>
+  </si>
+  <si>
+    <t>Ascending colon</t>
+  </si>
+  <si>
+    <t>Axillary tail of breast</t>
+  </si>
+  <si>
+    <t>Bile duct</t>
+  </si>
+  <si>
+    <t>Bladder</t>
+  </si>
+  <si>
+    <t>Blood</t>
+  </si>
+  <si>
+    <t>Body of pancreas</t>
+  </si>
+  <si>
+    <t>Body of stomach</t>
+  </si>
+  <si>
+    <t>Bone</t>
+  </si>
+  <si>
+    <t>Bone marrow</t>
+  </si>
+  <si>
+    <t>Brain</t>
+  </si>
+  <si>
+    <t>Brain stem</t>
+  </si>
+  <si>
+    <t>Breast</t>
+  </si>
+  <si>
+    <t>Cardia</t>
+  </si>
+  <si>
+    <t>Cauda equina</t>
+  </si>
+  <si>
+    <t>Cecum</t>
+  </si>
+  <si>
+    <t>Central portion of breast</t>
+  </si>
+  <si>
+    <t>Cerebellum</t>
+  </si>
+  <si>
+    <t>Cerebrum</t>
+  </si>
+  <si>
+    <t>Cervical esophagus</t>
+  </si>
+  <si>
+    <t>Cervix Uteri</t>
+  </si>
+  <si>
+    <t>Cloacogenic zone</t>
+  </si>
+  <si>
+    <t>Colon</t>
+  </si>
+  <si>
+    <t>Connective and soft tissue</t>
+  </si>
+  <si>
+    <t>Cranial nerve</t>
+  </si>
+  <si>
+    <t>Descended testis</t>
+  </si>
+  <si>
+    <t>Descending colon</t>
+  </si>
+  <si>
+    <t>Duodenum</t>
+  </si>
+  <si>
+    <t>Embryo</t>
+  </si>
+  <si>
+    <t>Embyro</t>
+  </si>
+  <si>
+    <t>Endocervix</t>
+  </si>
+  <si>
+    <t>Epithelium</t>
+  </si>
+  <si>
+    <t>Esophagus</t>
+  </si>
+  <si>
+    <t>Exocervix</t>
+  </si>
+  <si>
+    <t>External ear</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>Eyelid</t>
+  </si>
+  <si>
+    <t>Frontal lobe</t>
+  </si>
+  <si>
+    <t>Fundus of stomach</t>
+  </si>
+  <si>
+    <t>Gallbladder</t>
+  </si>
+  <si>
+    <t>Gastric antrum</t>
+  </si>
+  <si>
+    <t>Greater curvature of stomach</t>
+  </si>
+  <si>
+    <t>Head and neck</t>
+  </si>
+  <si>
+    <t>Head of pancreas</t>
+  </si>
+  <si>
+    <t>Hematopoietic system</t>
+  </si>
+  <si>
+    <t>Hepatic flexure of colon</t>
+  </si>
+  <si>
+    <t>Ileum</t>
+  </si>
+  <si>
+    <t>Intra-abdominal lymph nodes</t>
+  </si>
+  <si>
+    <t>Intrahepatic bile duct</t>
+  </si>
+  <si>
+    <t>Intrathoracic lymph nodes</t>
+  </si>
+  <si>
+    <t>Islets of Langerhans</t>
+  </si>
+  <si>
+    <t>Jejunum</t>
+  </si>
+  <si>
+    <t>Kidney</t>
+  </si>
+  <si>
+    <t>Lesser curvature of stomach</t>
+  </si>
+  <si>
+    <t>Liver</t>
+  </si>
+  <si>
+    <t>Lower lobe, lung</t>
+  </si>
+  <si>
+    <t>Lower third of esophagus</t>
+  </si>
+  <si>
+    <t>Lower-inner quadrant of breast</t>
+  </si>
+  <si>
+    <t>Lower-outer quadrant of breast</t>
+  </si>
+  <si>
+    <t>Lung</t>
+  </si>
+  <si>
+    <t>Lymph node</t>
+  </si>
+  <si>
+    <t>Lymph nodes of axilla or arm</t>
+  </si>
+  <si>
+    <t>Lymph nodes of head, face and neck</t>
+  </si>
+  <si>
+    <t>Lymph nodes of inguinal region or leg</t>
+  </si>
+  <si>
+    <t>Lymphatic system</t>
+  </si>
+  <si>
+    <t>Main bronchus</t>
+  </si>
+  <si>
+    <t>Mammary Gland</t>
+  </si>
+  <si>
+    <t>Meckel diverticulum</t>
+  </si>
+  <si>
+    <t>Middle ear</t>
+  </si>
+  <si>
+    <t>Middle lobe, lung</t>
+  </si>
+  <si>
+    <t>Middle third of esophagus</t>
+  </si>
+  <si>
+    <t>Mouth</t>
+  </si>
+  <si>
+    <t>Nasal cavity</t>
+  </si>
+  <si>
+    <t>Nervous system</t>
+  </si>
+  <si>
+    <t>Nipple</t>
+  </si>
+  <si>
+    <t>Occipital lobe</t>
+  </si>
+  <si>
+    <t>Olfactory nerve</t>
+  </si>
+  <si>
+    <t>Optic nerve</t>
+  </si>
+  <si>
+    <t>Ovary</t>
+  </si>
+  <si>
+    <t>Overlapping lesion of brain</t>
+  </si>
+  <si>
+    <t>Overlapping lesion of brain and central nervous system</t>
+  </si>
+  <si>
+    <t>Overlapping lesion of breast</t>
+  </si>
+  <si>
+    <t>Overlapping lesion of cervix uteri</t>
+  </si>
+  <si>
+    <t>Overlapping lesion of colon</t>
+  </si>
+  <si>
+    <t>Overlapping lesion of esophagus</t>
+  </si>
+  <si>
+    <t>Overlapping lesion of lung</t>
+  </si>
+  <si>
+    <t>Overlapping lesion of pancreas</t>
+  </si>
+  <si>
+    <t>Overlapping lesion of rectum, anus and anal canal</t>
+  </si>
+  <si>
+    <t>Overlapping lesion of small intestine</t>
+  </si>
+  <si>
+    <t>Overlapping lesion of stomach</t>
+  </si>
+  <si>
+    <t>Pancreas</t>
+  </si>
+  <si>
+    <t>Pancreatic duct</t>
+  </si>
+  <si>
+    <t>Parietal lobe</t>
+  </si>
+  <si>
+    <t>Pelvic lymph nodes</t>
+  </si>
+  <si>
+    <t>Peripheral Nerves</t>
+  </si>
+  <si>
+    <t>Prostate Gland</t>
+  </si>
+  <si>
+    <t>Pylorus</t>
+  </si>
+  <si>
+    <t>Rectum</t>
+  </si>
+  <si>
+    <t>Reticuloendothelial system</t>
+  </si>
+  <si>
+    <t>Sigmoid colon</t>
+  </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>Skin of lower limb and hip</t>
+  </si>
+  <si>
+    <t>Skin of other and unspecified parts of face</t>
+  </si>
+  <si>
+    <t>Skin of scalp and neck</t>
+  </si>
+  <si>
+    <t>Skin of trunk</t>
+  </si>
+  <si>
+    <t>Skin of upper limb and shoulder</t>
+  </si>
+  <si>
+    <t>Small intestine</t>
+  </si>
+  <si>
+    <t>Spinal cord</t>
+  </si>
+  <si>
+    <t>Spleen</t>
+  </si>
+  <si>
+    <t>Splenic flexure of colon</t>
+  </si>
+  <si>
+    <t>Stomach</t>
+  </si>
+  <si>
+    <t>Tail of pancreas</t>
+  </si>
+  <si>
+    <t>Temporal lobe</t>
+  </si>
+  <si>
+    <t>Testis</t>
+  </si>
+  <si>
+    <t>Thoracic esophagus</t>
+  </si>
+  <si>
+    <t>Throat</t>
+  </si>
+  <si>
+    <t>Thymus</t>
+  </si>
+  <si>
+    <t>Tongue</t>
+  </si>
+  <si>
+    <t>Trachea</t>
+  </si>
+  <si>
+    <t>Transverse colon</t>
+  </si>
+  <si>
+    <t>Undescended testis</t>
+  </si>
+  <si>
+    <t>Upper lobe, lung</t>
+  </si>
+  <si>
+    <t>Upper third of esophagus</t>
+  </si>
+  <si>
+    <t>Upper-inner quadrant of breast</t>
+  </si>
+  <si>
+    <t>Upper-outer quadrant of breast</t>
+  </si>
+  <si>
+    <t>Uterus</t>
+  </si>
+  <si>
+    <t>Vagina</t>
+  </si>
+  <si>
+    <t>Ventricle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -778,6 +1540,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="SF Mono"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="SF Mono"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1121,13 +1889,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1559,25 +2328,25 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1585,23 +2354,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{DAD18F06-7E06-0D4A-BFAD-3AE88C064EE1}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$146:$B$269</xm:f>
-          </x14:formula1>
-          <xm:sqref>Z2:Z1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{28C7E634-8194-1046-A0DF-5DF5C5970748}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{5665570D-4078-A640-B6DB-74F3B4D6739D}">
           <x14:formula1>
             <xm:f>standard_terms!$B$270:$B$403</xm:f>
           </x14:formula1>
           <xm:sqref>AA2:AA1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{C5F46528-D101-0F44-9104-5C6C41A60026}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{9BD52FD9-8647-4742-9564-40E730A8A1D7}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$2:$B$145</xm:f>
+            <xm:f>standard_terms!$B$2:$B$144</xm:f>
           </x14:formula1>
           <xm:sqref>Y2:Y1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{954816C5-4C70-2145-8495-033359861269}">
+          <x14:formula1>
+            <xm:f>standard_terms!$B$145:$B$269</xm:f>
+          </x14:formula1>
+          <xm:sqref>Z2:Z1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1624,13 +2393,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -1638,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -1647,7 +2416,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -1667,10 +2436,10 @@
     </row>
     <row r="6" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -1679,10 +2448,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -1690,7 +2459,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -1699,7 +2468,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -1708,7 +2477,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -1717,7 +2486,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -1726,7 +2495,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2"/>
     </row>
@@ -1735,7 +2504,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2"/>
     </row>
@@ -1744,16 +2513,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2"/>
     </row>
@@ -1762,7 +2531,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2"/>
     </row>
@@ -1771,7 +2540,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2"/>
     </row>
@@ -1780,7 +2549,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2"/>
     </row>
@@ -1789,56 +2558,56 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2"/>
     </row>
@@ -1863,4683 +2632,4428 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C41" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C45" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C48" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C52" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C54" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C55" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C57" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C59" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C61" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C62" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C64" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C65" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C66" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C67" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C68" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B69" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C69" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B70" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C70" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B71" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C71" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B72" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C72" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B73" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C73" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B74" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C74" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B75" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C75" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C76" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B77" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C77" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B78" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C78" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B79" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C79" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C80" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B81" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C81" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B83" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C83" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C84" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B85" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C85" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C86" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B87" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C87" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C88" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B89" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C89" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B90" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C90" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B91" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C91" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B92" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C92" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B93" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C93" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B94" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C94" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B95" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C95" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B96" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C96" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B97" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B98" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C98" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B99" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C99" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B100" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C100" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B101" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C101" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B102" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C102" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B103" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B104" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C104" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B105" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C105" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B106" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C106" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B107" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C107" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B108" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C108" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B109" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C109" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B110" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C110" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B111" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C111" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B112" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C112" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B113" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C113" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B114" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B115" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C115" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B116" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C116" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B117" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C117" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B118" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C118" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B119" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C119" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B120" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C120" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B121" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C121" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B122" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C122" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B123" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C123" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B124" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C124" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B125" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C125" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B126" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C126" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B127" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C127" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B128" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C128" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B129" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B130" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C130" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B131" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C131" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B132" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C132" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B133" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C133" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B134" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C134" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B135" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C135" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B136" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C136" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B137" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C137" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B138" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C138" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B139" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C139" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B140" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C140" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B141" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C141" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B142" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C142" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B143" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C143" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B144" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C144" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>24</v>
-      </c>
-      <c r="B145" t="s">
-        <v>198</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B145" s="4"/>
       <c r="C145" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="B146" t="s">
+        <v>139</v>
       </c>
       <c r="C146" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>52</v>
-      </c>
-      <c r="B147" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Not Applicable")</f>
-        <v>Not Applicable</v>
+        <v>50</v>
+      </c>
+      <c r="B147" t="s">
+        <v>202</v>
       </c>
       <c r="C147" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>52</v>
-      </c>
-      <c r="B148" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Normal")</f>
-        <v>Normal</v>
+        <v>50</v>
+      </c>
+      <c r="B148" t="s">
+        <v>203</v>
       </c>
       <c r="C148" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>52</v>
-      </c>
-      <c r="B149" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pan-cancer")</f>
-        <v>Pan-cancer</v>
+        <v>50</v>
+      </c>
+      <c r="B149" t="s">
+        <v>204</v>
       </c>
       <c r="C149" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>52</v>
-      </c>
-      <c r="B150" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Acinar Cell Carcinoma")</f>
-        <v>Acinar Cell Carcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B150" t="s">
+        <v>205</v>
       </c>
       <c r="C150" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>52</v>
-      </c>
-      <c r="B151" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Acute Lymphoblastic Leukemia")</f>
-        <v>Acute Lymphoblastic Leukemia</v>
+        <v>50</v>
+      </c>
+      <c r="B151" t="s">
+        <v>206</v>
       </c>
       <c r="C151" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>52</v>
-      </c>
-      <c r="B152" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Acute Myeloid Leukemia")</f>
-        <v>Acute Myeloid Leukemia</v>
+        <v>50</v>
+      </c>
+      <c r="B152" t="s">
+        <v>207</v>
       </c>
       <c r="C152" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>52</v>
-      </c>
-      <c r="B153" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Acute Promyelolitic Leukemia")</f>
-        <v>Acute Promyelolitic Leukemia</v>
+        <v>50</v>
+      </c>
+      <c r="B153" t="s">
+        <v>208</v>
       </c>
       <c r="C153" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>52</v>
-      </c>
-      <c r="B154" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Adenocarcinoma")</f>
-        <v>Adenocarcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B154" t="s">
+        <v>209</v>
       </c>
       <c r="C154" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>52</v>
-      </c>
-      <c r="B155" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Astrocytoma")</f>
-        <v>Astrocytoma</v>
+        <v>50</v>
+      </c>
+      <c r="B155" t="s">
+        <v>210</v>
       </c>
       <c r="C155" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>52</v>
-      </c>
-      <c r="B156" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B Acute Lymphoblastic Leukemia")</f>
-        <v>B Acute Lymphoblastic Leukemia</v>
+        <v>50</v>
+      </c>
+      <c r="B156" t="s">
+        <v>211</v>
       </c>
       <c r="C156" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>52</v>
-      </c>
-      <c r="B157" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Barrett Esophagus")</f>
-        <v>Barrett Esophagus</v>
+        <v>50</v>
+      </c>
+      <c r="B157" t="s">
+        <v>212</v>
       </c>
       <c r="C157" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>52</v>
-      </c>
-      <c r="B158" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Basal Cell Neoplasm")</f>
-        <v>Basal Cell Neoplasm</v>
+        <v>50</v>
+      </c>
+      <c r="B158" t="s">
+        <v>213</v>
       </c>
       <c r="C158" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>52</v>
-      </c>
-      <c r="B159" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bile Duct Neoplasm")</f>
-        <v>Bile Duct Neoplasm</v>
+        <v>50</v>
+      </c>
+      <c r="B159" t="s">
+        <v>214</v>
       </c>
       <c r="C159" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>52</v>
-      </c>
-      <c r="B160" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bladder Neoplasm")</f>
-        <v>Bladder Neoplasm</v>
+        <v>50</v>
+      </c>
+      <c r="B160" t="s">
+        <v>215</v>
       </c>
       <c r="C160" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>52</v>
-      </c>
-      <c r="B161" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bladder Small Cell Carcinoma")</f>
-        <v>Bladder Small Cell Carcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B161" t="s">
+        <v>216</v>
       </c>
       <c r="C161" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>52</v>
-      </c>
-      <c r="B162" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bone Marrow Neoplasm")</f>
-        <v>Bone Marrow Neoplasm</v>
+        <v>50</v>
+      </c>
+      <c r="B162" t="s">
+        <v>217</v>
       </c>
       <c r="C162" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>52</v>
-      </c>
-      <c r="B163" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bone Neoplasm")</f>
-        <v>Bone Neoplasm</v>
+        <v>50</v>
+      </c>
+      <c r="B163" t="s">
+        <v>218</v>
       </c>
       <c r="C163" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>52</v>
-      </c>
-      <c r="B164" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Brain Neoplasm")</f>
-        <v>Brain Neoplasm</v>
+        <v>50</v>
+      </c>
+      <c r="B164" t="s">
+        <v>219</v>
       </c>
       <c r="C164" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>52</v>
-      </c>
-      <c r="B165" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Breast Tumor")</f>
-        <v>Breast Tumor</v>
+        <v>50</v>
+      </c>
+      <c r="B165" t="s">
+        <v>220</v>
       </c>
       <c r="C165" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>52</v>
-      </c>
-      <c r="B166" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Burkitt Leukemia")</f>
-        <v>Burkitt Leukemia</v>
+        <v>50</v>
+      </c>
+      <c r="B166" t="s">
+        <v>221</v>
       </c>
       <c r="C166" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>52</v>
-      </c>
-      <c r="B167" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Carcinoma")</f>
-        <v>Carcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B167" t="s">
+        <v>222</v>
       </c>
       <c r="C167" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>52</v>
-      </c>
-      <c r="B168" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Carcinoma in situ")</f>
-        <v>Carcinoma in situ</v>
+        <v>50</v>
+      </c>
+      <c r="B168" t="s">
+        <v>223</v>
       </c>
       <c r="C168" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>52</v>
-      </c>
-      <c r="B169" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Carcinoma in situ of Bladder")</f>
-        <v>Carcinoma in situ of Bladder</v>
+        <v>50</v>
+      </c>
+      <c r="B169" t="s">
+        <v>224</v>
       </c>
       <c r="C169" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>52</v>
-      </c>
-      <c r="B170" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Carcinoma in situ of Breast")</f>
-        <v>Carcinoma in situ of Breast</v>
+        <v>50</v>
+      </c>
+      <c r="B170" t="s">
+        <v>225</v>
       </c>
       <c r="C170" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>52</v>
-      </c>
-      <c r="B171" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Carcinoma in situ of Bronchus and Lung")</f>
-        <v>Carcinoma in situ of Bronchus and Lung</v>
+        <v>50</v>
+      </c>
+      <c r="B171" t="s">
+        <v>226</v>
       </c>
       <c r="C171" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>52</v>
-      </c>
-      <c r="B172" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Carcinoma in situ of Cervix Uteri")</f>
-        <v>Carcinoma in situ of Cervix Uteri</v>
+        <v>50</v>
+      </c>
+      <c r="B172" t="s">
+        <v>227</v>
       </c>
       <c r="C172" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>52</v>
-      </c>
-      <c r="B173" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Carcinoma in situ of Colon")</f>
-        <v>Carcinoma in situ of Colon</v>
+        <v>50</v>
+      </c>
+      <c r="B173" t="s">
+        <v>228</v>
       </c>
       <c r="C173" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>52</v>
-      </c>
-      <c r="B174" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Carcinoma in situ of Esophagus")</f>
-        <v>Carcinoma in situ of Esophagus</v>
+        <v>50</v>
+      </c>
+      <c r="B174" t="s">
+        <v>229</v>
       </c>
       <c r="C174" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>52</v>
-      </c>
-      <c r="B175" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Carcinoma in situ of prostate")</f>
-        <v>Carcinoma in situ of prostate</v>
+        <v>50</v>
+      </c>
+      <c r="B175" t="s">
+        <v>230</v>
       </c>
       <c r="C175" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>52</v>
-      </c>
-      <c r="B176" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Carcinoma in situ of Skin")</f>
-        <v>Carcinoma in situ of Skin</v>
+        <v>50</v>
+      </c>
+      <c r="B176" t="s">
+        <v>231</v>
       </c>
       <c r="C176" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>52</v>
-      </c>
-      <c r="B177" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Central Nervous System Neoplasm")</f>
-        <v>Central Nervous System Neoplasm</v>
+        <v>50</v>
+      </c>
+      <c r="B177" t="s">
+        <v>232</v>
       </c>
       <c r="C177" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>52</v>
-      </c>
-      <c r="B178" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Cerebellar Neoplasm")</f>
-        <v>Cerebellar Neoplasm</v>
+        <v>50</v>
+      </c>
+      <c r="B178" t="s">
+        <v>233</v>
       </c>
       <c r="C178" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>52</v>
-      </c>
-      <c r="B179" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Cervical Small Cell Carcinoma")</f>
-        <v>Cervical Small Cell Carcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B179" t="s">
+        <v>234</v>
       </c>
       <c r="C179" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>52</v>
-      </c>
-      <c r="B180" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Childhood Bladder Carcinoma")</f>
-        <v>Childhood Bladder Carcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B180" t="s">
+        <v>235</v>
       </c>
       <c r="C180" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>52</v>
-      </c>
-      <c r="B181" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Cholangiocarcinoma")</f>
-        <v>Cholangiocarcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B181" t="s">
+        <v>236</v>
       </c>
       <c r="C181" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>52</v>
-      </c>
-      <c r="B182" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Chondroma")</f>
-        <v>Chondroma</v>
+        <v>50</v>
+      </c>
+      <c r="B182" t="s">
+        <v>237</v>
       </c>
       <c r="C182" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>52</v>
-      </c>
-      <c r="B183" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Chronic Lymphocytic Leukemia")</f>
-        <v>Chronic Lymphocytic Leukemia</v>
+        <v>50</v>
+      </c>
+      <c r="B183" t="s">
+        <v>238</v>
       </c>
       <c r="C183" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>52</v>
-      </c>
-      <c r="B184" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Chronic myeloid leukemia")</f>
-        <v>Chronic myeloid leukemia</v>
+        <v>50</v>
+      </c>
+      <c r="B184" t="s">
+        <v>239</v>
       </c>
       <c r="C184" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>52</v>
-      </c>
-      <c r="B185" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Colon Adenocarcinoma")</f>
-        <v>Colon Adenocarcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B185" t="s">
+        <v>240</v>
       </c>
       <c r="C185" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>52</v>
-      </c>
-      <c r="B186" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Colon Adenosquamous Carcinoma")</f>
-        <v>Colon Adenosquamous Carcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B186" t="s">
+        <v>241</v>
       </c>
       <c r="C186" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>52</v>
-      </c>
-      <c r="B187" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Colon Small Cell Neuroendocrine Carcinoma")</f>
-        <v>Colon Small Cell Neuroendocrine Carcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B187" t="s">
+        <v>242</v>
       </c>
       <c r="C187" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>52</v>
-      </c>
-      <c r="B188" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Colon Squamous Cell Carcinoma")</f>
-        <v>Colon Squamous Cell Carcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B188" t="s">
+        <v>243</v>
       </c>
       <c r="C188" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>52</v>
-      </c>
-      <c r="B189" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Colorectal Tumor")</f>
-        <v>Colorectal Tumor</v>
+        <v>50</v>
+      </c>
+      <c r="B189" t="s">
+        <v>244</v>
       </c>
       <c r="C189" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>52</v>
-      </c>
-      <c r="B190" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diffuse Large B-Cell Lymphoma")</f>
-        <v>Diffuse Large B-Cell Lymphoma</v>
+        <v>50</v>
+      </c>
+      <c r="B190" t="s">
+        <v>245</v>
       </c>
       <c r="C190" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>52</v>
-      </c>
-      <c r="B191" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Dysplastic Nevus Syndrome")</f>
-        <v>Dysplastic Nevus Syndrome</v>
+        <v>50</v>
+      </c>
+      <c r="B191" t="s">
+        <v>246</v>
       </c>
       <c r="C191" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>52</v>
-      </c>
-      <c r="B192" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Endometrial Carcinoma")</f>
-        <v>Endometrial Carcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B192" t="s">
+        <v>247</v>
       </c>
       <c r="C192" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>52</v>
-      </c>
-      <c r="B193" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Endometrial Neoplasm")</f>
-        <v>Endometrial Neoplasm</v>
+        <v>50</v>
+      </c>
+      <c r="B193" t="s">
+        <v>248</v>
       </c>
       <c r="C193" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>52</v>
-      </c>
-      <c r="B194" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ependymoma")</f>
-        <v>Ependymoma</v>
+        <v>50</v>
+      </c>
+      <c r="B194" t="s">
+        <v>249</v>
       </c>
       <c r="C194" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>52</v>
-      </c>
-      <c r="B195" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fibrosarcoma")</f>
-        <v>Fibrosarcoma</v>
+        <v>50</v>
+      </c>
+      <c r="B195" t="s">
+        <v>250</v>
       </c>
       <c r="C195" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>52</v>
-      </c>
-      <c r="B196" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Gastric Adenocarcinoma")</f>
-        <v>Gastric Adenocarcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B196" t="s">
+        <v>251</v>
       </c>
       <c r="C196" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>52</v>
-      </c>
-      <c r="B197" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Glioblastoma")</f>
-        <v>Glioblastoma</v>
+        <v>50</v>
+      </c>
+      <c r="B197" t="s">
+        <v>252</v>
       </c>
       <c r="C197" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>52</v>
-      </c>
-      <c r="B198" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Glioma")</f>
-        <v>Glioma</v>
+        <v>50</v>
+      </c>
+      <c r="B198" t="s">
+        <v>253</v>
       </c>
       <c r="C198" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>52</v>
-      </c>
-      <c r="B199" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Head and Neck Carcinoma")</f>
-        <v>Head and Neck Carcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B199" t="s">
+        <v>254</v>
       </c>
       <c r="C199" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>52</v>
-      </c>
-      <c r="B200" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Head and Neck Neoplasm")</f>
-        <v>Head and Neck Neoplasm</v>
+        <v>50</v>
+      </c>
+      <c r="B200" t="s">
+        <v>255</v>
       </c>
       <c r="C200" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>52</v>
-      </c>
-      <c r="B201" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Hodgkin Lymphoma")</f>
-        <v>Hodgkin Lymphoma</v>
+        <v>50</v>
+      </c>
+      <c r="B201" t="s">
+        <v>256</v>
       </c>
       <c r="C201" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>52</v>
-      </c>
-      <c r="B202" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Intestinal Neoplasm")</f>
-        <v>Intestinal Neoplasm</v>
+        <v>50</v>
+      </c>
+      <c r="B202" t="s">
+        <v>257</v>
       </c>
       <c r="C202" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>52</v>
-      </c>
-      <c r="B203" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Intraductal Carcinoma in situ of Breast")</f>
-        <v>Intraductal Carcinoma in situ of Breast</v>
+        <v>50</v>
+      </c>
+      <c r="B203" t="s">
+        <v>258</v>
       </c>
       <c r="C203" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>52</v>
-      </c>
-      <c r="B204" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Invasive Ductal Breast Carcinoma")</f>
-        <v>Invasive Ductal Breast Carcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B204" t="s">
+        <v>259</v>
       </c>
       <c r="C204" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>52</v>
-      </c>
-      <c r="B205" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Juvenile Myelomonocytic Leukemia")</f>
-        <v>Juvenile Myelomonocytic Leukemia</v>
+        <v>50</v>
+      </c>
+      <c r="B205" t="s">
+        <v>260</v>
       </c>
       <c r="C205" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>52</v>
-      </c>
-      <c r="B206" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Leiomyoma")</f>
-        <v>Leiomyoma</v>
+        <v>50</v>
+      </c>
+      <c r="B206" t="s">
+        <v>261</v>
       </c>
       <c r="C206" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>52</v>
-      </c>
-      <c r="B207" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Leukemia, Unspecified")</f>
-        <v>Leukemia, Unspecified</v>
+        <v>50</v>
+      </c>
+      <c r="B207" t="s">
+        <v>262</v>
       </c>
       <c r="C207" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>52</v>
-      </c>
-      <c r="B208" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Liver and Intrahepatic Bile Duct Carcinoma")</f>
-        <v>Liver and Intrahepatic Bile Duct Carcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B208" t="s">
+        <v>263</v>
       </c>
       <c r="C208" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>52</v>
-      </c>
-      <c r="B209" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Liver Neoplasm")</f>
-        <v>Liver Neoplasm</v>
+        <v>50</v>
+      </c>
+      <c r="B209" t="s">
+        <v>264</v>
       </c>
       <c r="C209" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>52</v>
-      </c>
-      <c r="B210" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Lobular Carcinoma in situ of Breast")</f>
-        <v>Lobular Carcinoma in situ of Breast</v>
+        <v>50</v>
+      </c>
+      <c r="B210" t="s">
+        <v>265</v>
       </c>
       <c r="C210" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>52</v>
-      </c>
-      <c r="B211" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Luminal A Breast Carcinoma")</f>
-        <v>Luminal A Breast Carcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B211" t="s">
+        <v>266</v>
       </c>
       <c r="C211" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>52</v>
-      </c>
-      <c r="B212" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Luminal B Breast Carcinoma")</f>
-        <v>Luminal B Breast Carcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B212" t="s">
+        <v>267</v>
       </c>
       <c r="C212" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>52</v>
-      </c>
-      <c r="B213" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Lung Adenocarcinoma")</f>
-        <v>Lung Adenocarcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B213" t="s">
+        <v>268</v>
       </c>
       <c r="C213" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>52</v>
-      </c>
-      <c r="B214" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Lung Neoplasm")</f>
-        <v>Lung Neoplasm</v>
+        <v>50</v>
+      </c>
+      <c r="B214" t="s">
+        <v>269</v>
       </c>
       <c r="C214" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>52</v>
-      </c>
-      <c r="B215" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Lung Non-Small Cell Carcinoma")</f>
-        <v>Lung Non-Small Cell Carcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B215" t="s">
+        <v>270</v>
       </c>
       <c r="C215" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>52</v>
-      </c>
-      <c r="B216" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Lung Small Cell Carcinoma")</f>
-        <v>Lung Small Cell Carcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B216" t="s">
+        <v>271</v>
       </c>
       <c r="C216" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>52</v>
-      </c>
-      <c r="B217" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Lymphoblastic Lymphoma")</f>
-        <v>Lymphoblastic Lymphoma</v>
+        <v>50</v>
+      </c>
+      <c r="B217" t="s">
+        <v>272</v>
       </c>
       <c r="C217" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>52</v>
-      </c>
-      <c r="B218" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Lymphoid Leukemia")</f>
-        <v>Lymphoid Leukemia</v>
+        <v>50</v>
+      </c>
+      <c r="B218" t="s">
+        <v>273</v>
       </c>
       <c r="C218" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>52</v>
-      </c>
-      <c r="B219" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Lymphoma")</f>
-        <v>Lymphoma</v>
+        <v>50</v>
+      </c>
+      <c r="B219" t="s">
+        <v>274</v>
       </c>
       <c r="C219" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>52</v>
-      </c>
-      <c r="B220" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Malignant Neoplasm of Brain")</f>
-        <v>Malignant Neoplasm of Brain</v>
+        <v>50</v>
+      </c>
+      <c r="B220" t="s">
+        <v>275</v>
       </c>
       <c r="C220" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>52</v>
-      </c>
-      <c r="B221" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Malignant Neoplasm of Ovary")</f>
-        <v>Malignant Neoplasm of Ovary</v>
+        <v>50</v>
+      </c>
+      <c r="B221" t="s">
+        <v>276</v>
       </c>
       <c r="C221" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>52</v>
-      </c>
-      <c r="B222" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Malignant Neoplasm of Pancreas")</f>
-        <v>Malignant Neoplasm of Pancreas</v>
+        <v>50</v>
+      </c>
+      <c r="B222" t="s">
+        <v>277</v>
       </c>
       <c r="C222" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>52</v>
-      </c>
-      <c r="B223" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Malignant Peripheral Nerve Sheath Tumor")</f>
-        <v>Malignant Peripheral Nerve Sheath Tumor</v>
+        <v>50</v>
+      </c>
+      <c r="B223" t="s">
+        <v>278</v>
       </c>
       <c r="C223" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>52</v>
-      </c>
-      <c r="B224" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Malignant Peripheral Nerve Tissue Tumor")</f>
-        <v>Malignant Peripheral Nerve Tissue Tumor</v>
+        <v>50</v>
+      </c>
+      <c r="B224" t="s">
+        <v>279</v>
       </c>
       <c r="C224" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>52</v>
-      </c>
-      <c r="B225" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mantle cell lymphoma")</f>
-        <v>Mantle cell lymphoma</v>
+        <v>50</v>
+      </c>
+      <c r="B225" t="s">
+        <v>280</v>
       </c>
       <c r="C225" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>52</v>
-      </c>
-      <c r="B226" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Marginal Zone Lymphoma")</f>
-        <v>Marginal Zone Lymphoma</v>
+        <v>50</v>
+      </c>
+      <c r="B226" t="s">
+        <v>281</v>
       </c>
       <c r="C226" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>52</v>
-      </c>
-      <c r="B227" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medulloblastoma")</f>
-        <v>Medulloblastoma</v>
+        <v>50</v>
+      </c>
+      <c r="B227" t="s">
+        <v>282</v>
       </c>
       <c r="C227" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>52</v>
-      </c>
-      <c r="B228" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Melanoma")</f>
-        <v>Melanoma</v>
+        <v>50</v>
+      </c>
+      <c r="B228" t="s">
+        <v>283</v>
       </c>
       <c r="C228" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>52</v>
-      </c>
-      <c r="B229" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Monoclonal Gammopathy of Undetermined Significance")</f>
-        <v>Monoclonal Gammopathy of Undetermined Significance</v>
+        <v>50</v>
+      </c>
+      <c r="B229" t="s">
+        <v>284</v>
       </c>
       <c r="C229" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>52</v>
-      </c>
-      <c r="B230" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mouth Neoplasm")</f>
-        <v>Mouth Neoplasm</v>
+        <v>50</v>
+      </c>
+      <c r="B230" t="s">
+        <v>285</v>
       </c>
       <c r="C230" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>52</v>
-      </c>
-      <c r="B231" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mucosa-Associated Lymphoid Tissue Lymphoma")</f>
-        <v>Mucosa-Associated Lymphoid Tissue Lymphoma</v>
+        <v>50</v>
+      </c>
+      <c r="B231" t="s">
+        <v>286</v>
       </c>
       <c r="C231" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>52</v>
-      </c>
-      <c r="B232" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Multiple Myeloma")</f>
-        <v>Multiple Myeloma</v>
+        <v>50</v>
+      </c>
+      <c r="B232" t="s">
+        <v>287</v>
       </c>
       <c r="C232" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>52</v>
-      </c>
-      <c r="B233" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Myelodysplastic Syndrome")</f>
-        <v>Myelodysplastic Syndrome</v>
+        <v>50</v>
+      </c>
+      <c r="B233" t="s">
+        <v>288</v>
       </c>
       <c r="C233" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>52</v>
-      </c>
-      <c r="B234" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Myoepithelioma")</f>
-        <v>Myoepithelioma</v>
+        <v>50</v>
+      </c>
+      <c r="B234" t="s">
+        <v>289</v>
       </c>
       <c r="C234" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>52</v>
-      </c>
-      <c r="B235" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neuroblastoma")</f>
-        <v>Neuroblastoma</v>
+        <v>50</v>
+      </c>
+      <c r="B235" t="s">
+        <v>290</v>
       </c>
       <c r="C235" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>52</v>
-      </c>
-      <c r="B236" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neuroendocrine Neoplasm")</f>
-        <v>Neuroendocrine Neoplasm</v>
+        <v>50</v>
+      </c>
+      <c r="B236" t="s">
+        <v>291</v>
       </c>
       <c r="C236" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>52</v>
-      </c>
-      <c r="B237" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neurofibromatosis 1")</f>
-        <v>Neurofibromatosis 1</v>
+        <v>50</v>
+      </c>
+      <c r="B237" t="s">
+        <v>292</v>
       </c>
       <c r="C237" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>52</v>
-      </c>
-      <c r="B238" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Non-Hodgkin Lymphoma")</f>
-        <v>Non-Hodgkin Lymphoma</v>
+        <v>50</v>
+      </c>
+      <c r="B238" t="s">
+        <v>293</v>
       </c>
       <c r="C238" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>52</v>
-      </c>
-      <c r="B239" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Oral Cavity Squamous Cell Carcinoma")</f>
-        <v>Oral Cavity Squamous Cell Carcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B239" t="s">
+        <v>294</v>
       </c>
       <c r="C239" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>52</v>
-      </c>
-      <c r="B240" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Oropharyngeal Neoplasm")</f>
-        <v>Oropharyngeal Neoplasm</v>
+        <v>50</v>
+      </c>
+      <c r="B240" t="s">
+        <v>295</v>
       </c>
       <c r="C240" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>52</v>
-      </c>
-      <c r="B241" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Osteosarcoma")</f>
-        <v>Osteosarcoma</v>
+        <v>50</v>
+      </c>
+      <c r="B241" t="s">
+        <v>296</v>
       </c>
       <c r="C241" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>52</v>
-      </c>
-      <c r="B242" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ovarian Neoplasm")</f>
-        <v>Ovarian Neoplasm</v>
+        <v>50</v>
+      </c>
+      <c r="B242" t="s">
+        <v>297</v>
       </c>
       <c r="C242" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>52</v>
-      </c>
-      <c r="B243" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pancreatic Acinar Cell Carcinoma")</f>
-        <v>Pancreatic Acinar Cell Carcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B243" t="s">
+        <v>298</v>
       </c>
       <c r="C243" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>52</v>
-      </c>
-      <c r="B244" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pancreatic Adenocarcinoma")</f>
-        <v>Pancreatic Adenocarcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B244" t="s">
+        <v>299</v>
       </c>
       <c r="C244" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>52</v>
-      </c>
-      <c r="B245" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pancreatic Adenosquamous Carcinoma")</f>
-        <v>Pancreatic Adenosquamous Carcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B245" t="s">
+        <v>300</v>
       </c>
       <c r="C245" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>52</v>
-      </c>
-      <c r="B246" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pancreatic Neoplasm")</f>
-        <v>Pancreatic Neoplasm</v>
+        <v>50</v>
+      </c>
+      <c r="B246" t="s">
+        <v>301</v>
       </c>
       <c r="C246" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>52</v>
-      </c>
-      <c r="B247" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pancreatic Neuroendocrine Carcinoma")</f>
-        <v>Pancreatic Neuroendocrine Carcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B247" t="s">
+        <v>302</v>
       </c>
       <c r="C247" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>52</v>
-      </c>
-      <c r="B248" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Papillary Breast Carcinoma")</f>
-        <v>Papillary Breast Carcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B248" t="s">
+        <v>303</v>
       </c>
       <c r="C248" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>52</v>
-      </c>
-      <c r="B249" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Precursor B-Cell Lymphoblastic Leukemia-Lymphoma")</f>
-        <v>Precursor B-Cell Lymphoblastic Leukemia-Lymphoma</v>
+        <v>50</v>
+      </c>
+      <c r="B249" t="s">
+        <v>304</v>
       </c>
       <c r="C249" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>52</v>
-      </c>
-      <c r="B250" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Primary Myelofibrosis")</f>
-        <v>Primary Myelofibrosis</v>
+        <v>50</v>
+      </c>
+      <c r="B250" t="s">
+        <v>305</v>
       </c>
       <c r="C250" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>52</v>
-      </c>
-      <c r="B251" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Prostate Neoplasm")</f>
-        <v>Prostate Neoplasm</v>
+        <v>50</v>
+      </c>
+      <c r="B251" t="s">
+        <v>306</v>
       </c>
       <c r="C251" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>52</v>
-      </c>
-      <c r="B252" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Rectal Adenocarcinoma")</f>
-        <v>Rectal Adenocarcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B252" t="s">
+        <v>307</v>
       </c>
       <c r="C252" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>52</v>
-      </c>
-      <c r="B253" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Refractory Bladder Carcinoma")</f>
-        <v>Refractory Bladder Carcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B253" t="s">
+        <v>308</v>
       </c>
       <c r="C253" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>52</v>
-      </c>
-      <c r="B254" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Renal Cell Carcinoma")</f>
-        <v>Renal Cell Carcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B254" t="s">
+        <v>309</v>
       </c>
       <c r="C254" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>52</v>
-      </c>
-      <c r="B255" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Rhabdoid Tumor")</f>
-        <v>Rhabdoid Tumor</v>
+        <v>50</v>
+      </c>
+      <c r="B255" t="s">
+        <v>310</v>
       </c>
       <c r="C255" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>52</v>
-      </c>
-      <c r="B256" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sarcoma")</f>
-        <v>Sarcoma</v>
+        <v>50</v>
+      </c>
+      <c r="B256" t="s">
+        <v>311</v>
       </c>
       <c r="C256" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>52</v>
-      </c>
-      <c r="B257" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Skin Neoplasm")</f>
-        <v>Skin Neoplasm</v>
+        <v>50</v>
+      </c>
+      <c r="B257" t="s">
+        <v>312</v>
       </c>
       <c r="C257" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>52</v>
-      </c>
-      <c r="B258" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Splenic Neoplasm")</f>
-        <v>Splenic Neoplasm</v>
+        <v>50</v>
+      </c>
+      <c r="B258" t="s">
+        <v>313</v>
       </c>
       <c r="C258" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>52</v>
-      </c>
-      <c r="B259" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Squamous Cell Carcinoma")</f>
-        <v>Squamous Cell Carcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B259" t="s">
+        <v>314</v>
       </c>
       <c r="C259" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>52</v>
-      </c>
-      <c r="B260" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Squamous Cell Carcinoma of Head and Neck")</f>
-        <v>Squamous Cell Carcinoma of Head and Neck</v>
+        <v>50</v>
+      </c>
+      <c r="B260" t="s">
+        <v>315</v>
       </c>
       <c r="C260" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>52</v>
-      </c>
-      <c r="B261" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Stomach Neoplasm")</f>
-        <v>Stomach Neoplasm</v>
+        <v>50</v>
+      </c>
+      <c r="B261" t="s">
+        <v>316</v>
       </c>
       <c r="C261" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>52</v>
-      </c>
-      <c r="B262" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Superficial Bladder Carcinoma")</f>
-        <v>Superficial Bladder Carcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B262" t="s">
+        <v>317</v>
       </c>
       <c r="C262" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>52</v>
-      </c>
-      <c r="B263" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"T Acute Lymphoblastic Leukemia")</f>
-        <v>T Acute Lymphoblastic Leukemia</v>
+        <v>50</v>
+      </c>
+      <c r="B263" t="s">
+        <v>318</v>
       </c>
       <c r="C263" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>52</v>
-      </c>
-      <c r="B264" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"T-Cell Lymphoma")</f>
-        <v>T-Cell Lymphoma</v>
+        <v>50</v>
+      </c>
+      <c r="B264" t="s">
+        <v>319</v>
       </c>
       <c r="C264" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>52</v>
-      </c>
-      <c r="B265" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Triple-Negative Breast Cancer Finding")</f>
-        <v>Triple-Negative Breast Cancer Finding</v>
+        <v>50</v>
+      </c>
+      <c r="B265" t="s">
+        <v>320</v>
       </c>
       <c r="C265" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>52</v>
-      </c>
-      <c r="B266" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Tubular Breast Carcinoma")</f>
-        <v>Tubular Breast Carcinoma</v>
+        <v>50</v>
+      </c>
+      <c r="B266" t="s">
+        <v>321</v>
       </c>
       <c r="C266" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>52</v>
-      </c>
-      <c r="B267" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Uterine Cervical Neoplasm")</f>
-        <v>Uterine Cervical Neoplasm</v>
+        <v>50</v>
+      </c>
+      <c r="B267" t="s">
+        <v>322</v>
       </c>
       <c r="C267" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>52</v>
-      </c>
-      <c r="B268" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Uveal Melanoma")</f>
-        <v>Uveal Melanoma</v>
+        <v>50</v>
+      </c>
+      <c r="B268" t="s">
+        <v>323</v>
       </c>
       <c r="C268" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>52</v>
-      </c>
-      <c r="B269" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Uveal Neoplasm")</f>
-        <v>Uveal Neoplasm</v>
+        <v>50</v>
+      </c>
+      <c r="B269" t="s">
+        <v>324</v>
       </c>
       <c r="C269" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C270" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>54</v>
-      </c>
-      <c r="B271" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Abdominal esophagus")</f>
-        <v>Abdominal esophagus</v>
+        <v>52</v>
+      </c>
+      <c r="B271" t="s">
+        <v>325</v>
       </c>
       <c r="C271" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
-        <v>54</v>
-      </c>
-      <c r="B272" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Acoustic nerve")</f>
-        <v>Acoustic nerve</v>
+        <v>52</v>
+      </c>
+      <c r="B272" t="s">
+        <v>326</v>
       </c>
       <c r="C272" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
-        <v>54</v>
-      </c>
-      <c r="B273" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Anal canal")</f>
-        <v>Anal canal</v>
+        <v>52</v>
+      </c>
+      <c r="B273" t="s">
+        <v>327</v>
       </c>
       <c r="C273" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
-        <v>54</v>
-      </c>
-      <c r="B274" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Anus")</f>
-        <v>Anus</v>
+        <v>52</v>
+      </c>
+      <c r="B274" t="s">
+        <v>328</v>
       </c>
       <c r="C274" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
-        <v>54</v>
-      </c>
-      <c r="B275" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Appendix")</f>
-        <v>Appendix</v>
+        <v>52</v>
+      </c>
+      <c r="B275" t="s">
+        <v>329</v>
       </c>
       <c r="C275" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
-        <v>54</v>
-      </c>
-      <c r="B276" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ascending colon")</f>
-        <v>Ascending colon</v>
+        <v>52</v>
+      </c>
+      <c r="B276" t="s">
+        <v>330</v>
       </c>
       <c r="C276" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
-        <v>54</v>
-      </c>
-      <c r="B277" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Axillary tail of breast")</f>
-        <v>Axillary tail of breast</v>
+        <v>52</v>
+      </c>
+      <c r="B277" t="s">
+        <v>331</v>
       </c>
       <c r="C277" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
-        <v>54</v>
-      </c>
-      <c r="B278" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bile duct")</f>
-        <v>Bile duct</v>
+        <v>52</v>
+      </c>
+      <c r="B278" t="s">
+        <v>332</v>
       </c>
       <c r="C278" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
-        <v>54</v>
-      </c>
-      <c r="B279" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bladder")</f>
-        <v>Bladder</v>
+        <v>52</v>
+      </c>
+      <c r="B279" t="s">
+        <v>333</v>
       </c>
       <c r="C279" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
-        <v>54</v>
-      </c>
-      <c r="B280" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Blood")</f>
-        <v>Blood</v>
+        <v>52</v>
+      </c>
+      <c r="B280" t="s">
+        <v>334</v>
       </c>
       <c r="C280" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
-        <v>54</v>
-      </c>
-      <c r="B281" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Body of pancreas")</f>
-        <v>Body of pancreas</v>
+        <v>52</v>
+      </c>
+      <c r="B281" t="s">
+        <v>335</v>
       </c>
       <c r="C281" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
-        <v>54</v>
-      </c>
-      <c r="B282" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Body of stomach")</f>
-        <v>Body of stomach</v>
+        <v>52</v>
+      </c>
+      <c r="B282" t="s">
+        <v>336</v>
       </c>
       <c r="C282" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
-        <v>54</v>
-      </c>
-      <c r="B283" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bone")</f>
-        <v>Bone</v>
+        <v>52</v>
+      </c>
+      <c r="B283" t="s">
+        <v>337</v>
       </c>
       <c r="C283" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
-        <v>54</v>
-      </c>
-      <c r="B284" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bone marrow")</f>
-        <v>Bone marrow</v>
+        <v>52</v>
+      </c>
+      <c r="B284" t="s">
+        <v>338</v>
       </c>
       <c r="C284" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
-        <v>54</v>
-      </c>
-      <c r="B285" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Brain")</f>
-        <v>Brain</v>
+        <v>52</v>
+      </c>
+      <c r="B285" t="s">
+        <v>339</v>
       </c>
       <c r="C285" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
-        <v>54</v>
-      </c>
-      <c r="B286" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Brain stem")</f>
-        <v>Brain stem</v>
+        <v>52</v>
+      </c>
+      <c r="B286" t="s">
+        <v>340</v>
       </c>
       <c r="C286" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
-        <v>54</v>
-      </c>
-      <c r="B287" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Breast")</f>
-        <v>Breast</v>
+        <v>52</v>
+      </c>
+      <c r="B287" t="s">
+        <v>341</v>
       </c>
       <c r="C287" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
-        <v>54</v>
-      </c>
-      <c r="B288" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Cardia")</f>
-        <v>Cardia</v>
+        <v>52</v>
+      </c>
+      <c r="B288" t="s">
+        <v>342</v>
       </c>
       <c r="C288" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
-        <v>54</v>
-      </c>
-      <c r="B289" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Cauda equina")</f>
-        <v>Cauda equina</v>
+        <v>52</v>
+      </c>
+      <c r="B289" t="s">
+        <v>343</v>
       </c>
       <c r="C289" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
-        <v>54</v>
-      </c>
-      <c r="B290" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Cecum")</f>
-        <v>Cecum</v>
+        <v>52</v>
+      </c>
+      <c r="B290" t="s">
+        <v>344</v>
       </c>
       <c r="C290" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
-        <v>54</v>
-      </c>
-      <c r="B291" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Central portion of breast")</f>
-        <v>Central portion of breast</v>
+        <v>52</v>
+      </c>
+      <c r="B291" t="s">
+        <v>345</v>
       </c>
       <c r="C291" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
-        <v>54</v>
-      </c>
-      <c r="B292" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Cerebellum")</f>
-        <v>Cerebellum</v>
+        <v>52</v>
+      </c>
+      <c r="B292" t="s">
+        <v>346</v>
       </c>
       <c r="C292" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
-        <v>54</v>
-      </c>
-      <c r="B293" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Cerebrum")</f>
-        <v>Cerebrum</v>
+        <v>52</v>
+      </c>
+      <c r="B293" t="s">
+        <v>347</v>
       </c>
       <c r="C293" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
-        <v>54</v>
-      </c>
-      <c r="B294" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Cervical esophagus")</f>
-        <v>Cervical esophagus</v>
+        <v>52</v>
+      </c>
+      <c r="B294" t="s">
+        <v>348</v>
       </c>
       <c r="C294" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
-        <v>54</v>
-      </c>
-      <c r="B295" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Cervix Uteri")</f>
-        <v>Cervix Uteri</v>
+        <v>52</v>
+      </c>
+      <c r="B295" t="s">
+        <v>349</v>
       </c>
       <c r="C295" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
-        <v>54</v>
-      </c>
-      <c r="B296" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Cloacogenic zone")</f>
-        <v>Cloacogenic zone</v>
+        <v>52</v>
+      </c>
+      <c r="B296" t="s">
+        <v>350</v>
       </c>
       <c r="C296" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
-        <v>54</v>
-      </c>
-      <c r="B297" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Colon")</f>
-        <v>Colon</v>
+        <v>52</v>
+      </c>
+      <c r="B297" t="s">
+        <v>351</v>
       </c>
       <c r="C297" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
-        <v>54</v>
-      </c>
-      <c r="B298" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Connective and soft tissue")</f>
-        <v>Connective and soft tissue</v>
+        <v>52</v>
+      </c>
+      <c r="B298" t="s">
+        <v>352</v>
       </c>
       <c r="C298" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
-        <v>54</v>
-      </c>
-      <c r="B299" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Cranial nerve")</f>
-        <v>Cranial nerve</v>
+        <v>52</v>
+      </c>
+      <c r="B299" t="s">
+        <v>353</v>
       </c>
       <c r="C299" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
-        <v>54</v>
-      </c>
-      <c r="B300" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Descended testis")</f>
-        <v>Descended testis</v>
+        <v>52</v>
+      </c>
+      <c r="B300" t="s">
+        <v>354</v>
       </c>
       <c r="C300" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
-        <v>54</v>
-      </c>
-      <c r="B301" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Descending colon")</f>
-        <v>Descending colon</v>
+        <v>52</v>
+      </c>
+      <c r="B301" t="s">
+        <v>355</v>
       </c>
       <c r="C301" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
-        <v>54</v>
-      </c>
-      <c r="B302" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Duodenum")</f>
-        <v>Duodenum</v>
+        <v>52</v>
+      </c>
+      <c r="B302" t="s">
+        <v>356</v>
       </c>
       <c r="C302" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
-        <v>54</v>
-      </c>
-      <c r="B303" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Embryo")</f>
-        <v>Embryo</v>
+        <v>52</v>
+      </c>
+      <c r="B303" t="s">
+        <v>357</v>
       </c>
       <c r="C303" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
-        <v>54</v>
-      </c>
-      <c r="B304" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Embyro")</f>
-        <v>Embyro</v>
+        <v>52</v>
+      </c>
+      <c r="B304" t="s">
+        <v>358</v>
       </c>
       <c r="C304" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
-        <v>54</v>
-      </c>
-      <c r="B305" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Endocervix")</f>
-        <v>Endocervix</v>
+        <v>52</v>
+      </c>
+      <c r="B305" t="s">
+        <v>359</v>
       </c>
       <c r="C305" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
-        <v>54</v>
-      </c>
-      <c r="B306" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Epithelium")</f>
-        <v>Epithelium</v>
+        <v>52</v>
+      </c>
+      <c r="B306" t="s">
+        <v>360</v>
       </c>
       <c r="C306" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
-        <v>54</v>
-      </c>
-      <c r="B307" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Esophagus")</f>
-        <v>Esophagus</v>
+        <v>52</v>
+      </c>
+      <c r="B307" t="s">
+        <v>361</v>
       </c>
       <c r="C307" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
-        <v>54</v>
-      </c>
-      <c r="B308" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Exocervix")</f>
-        <v>Exocervix</v>
+        <v>52</v>
+      </c>
+      <c r="B308" t="s">
+        <v>362</v>
       </c>
       <c r="C308" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
-        <v>54</v>
-      </c>
-      <c r="B309" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"External ear")</f>
-        <v>External ear</v>
+        <v>52</v>
+      </c>
+      <c r="B309" t="s">
+        <v>363</v>
       </c>
       <c r="C309" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
-        <v>54</v>
-      </c>
-      <c r="B310" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Eye")</f>
-        <v>Eye</v>
+        <v>52</v>
+      </c>
+      <c r="B310" t="s">
+        <v>364</v>
       </c>
       <c r="C310" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
-        <v>54</v>
-      </c>
-      <c r="B311" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Eyelid")</f>
-        <v>Eyelid</v>
+        <v>52</v>
+      </c>
+      <c r="B311" t="s">
+        <v>365</v>
       </c>
       <c r="C311" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
-        <v>54</v>
-      </c>
-      <c r="B312" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Frontal lobe")</f>
-        <v>Frontal lobe</v>
+        <v>52</v>
+      </c>
+      <c r="B312" t="s">
+        <v>366</v>
       </c>
       <c r="C312" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
-        <v>54</v>
-      </c>
-      <c r="B313" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fundus of stomach")</f>
-        <v>Fundus of stomach</v>
+        <v>52</v>
+      </c>
+      <c r="B313" t="s">
+        <v>367</v>
       </c>
       <c r="C313" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
-        <v>54</v>
-      </c>
-      <c r="B314" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Gallbladder")</f>
-        <v>Gallbladder</v>
+        <v>52</v>
+      </c>
+      <c r="B314" t="s">
+        <v>368</v>
       </c>
       <c r="C314" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
-        <v>54</v>
-      </c>
-      <c r="B315" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Gastric antrum")</f>
-        <v>Gastric antrum</v>
+        <v>52</v>
+      </c>
+      <c r="B315" t="s">
+        <v>369</v>
       </c>
       <c r="C315" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
-        <v>54</v>
-      </c>
-      <c r="B316" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Greater curvature of stomach")</f>
-        <v>Greater curvature of stomach</v>
+        <v>52</v>
+      </c>
+      <c r="B316" t="s">
+        <v>370</v>
       </c>
       <c r="C316" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
-        <v>54</v>
-      </c>
-      <c r="B317" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Head and neck")</f>
-        <v>Head and neck</v>
+        <v>52</v>
+      </c>
+      <c r="B317" t="s">
+        <v>371</v>
       </c>
       <c r="C317" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
-        <v>54</v>
-      </c>
-      <c r="B318" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Head of pancreas")</f>
-        <v>Head of pancreas</v>
+        <v>52</v>
+      </c>
+      <c r="B318" t="s">
+        <v>372</v>
       </c>
       <c r="C318" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
-        <v>54</v>
-      </c>
-      <c r="B319" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Hematopoietic system")</f>
-        <v>Hematopoietic system</v>
+        <v>52</v>
+      </c>
+      <c r="B319" t="s">
+        <v>373</v>
       </c>
       <c r="C319" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
-        <v>54</v>
-      </c>
-      <c r="B320" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Hepatic flexure of colon")</f>
-        <v>Hepatic flexure of colon</v>
+        <v>52</v>
+      </c>
+      <c r="B320" t="s">
+        <v>374</v>
       </c>
       <c r="C320" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
-        <v>54</v>
-      </c>
-      <c r="B321" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ileum")</f>
-        <v>Ileum</v>
+        <v>52</v>
+      </c>
+      <c r="B321" t="s">
+        <v>375</v>
       </c>
       <c r="C321" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
-        <v>54</v>
-      </c>
-      <c r="B322" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Intra-abdominal lymph nodes")</f>
-        <v>Intra-abdominal lymph nodes</v>
+        <v>52</v>
+      </c>
+      <c r="B322" t="s">
+        <v>376</v>
       </c>
       <c r="C322" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
-        <v>54</v>
-      </c>
-      <c r="B323" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Intrahepatic bile duct")</f>
-        <v>Intrahepatic bile duct</v>
+        <v>52</v>
+      </c>
+      <c r="B323" t="s">
+        <v>377</v>
       </c>
       <c r="C323" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
-        <v>54</v>
-      </c>
-      <c r="B324" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Intrathoracic lymph nodes")</f>
-        <v>Intrathoracic lymph nodes</v>
+        <v>52</v>
+      </c>
+      <c r="B324" t="s">
+        <v>378</v>
       </c>
       <c r="C324" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
-        <v>54</v>
-      </c>
-      <c r="B325" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Islets of Langerhans")</f>
-        <v>Islets of Langerhans</v>
+        <v>52</v>
+      </c>
+      <c r="B325" t="s">
+        <v>379</v>
       </c>
       <c r="C325" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
-        <v>54</v>
-      </c>
-      <c r="B326" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Jejunum")</f>
-        <v>Jejunum</v>
+        <v>52</v>
+      </c>
+      <c r="B326" t="s">
+        <v>380</v>
       </c>
       <c r="C326" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
-        <v>54</v>
-      </c>
-      <c r="B327" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Kidney")</f>
-        <v>Kidney</v>
+        <v>52</v>
+      </c>
+      <c r="B327" t="s">
+        <v>381</v>
       </c>
       <c r="C327" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
-        <v>54</v>
-      </c>
-      <c r="B328" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Lesser curvature of stomach")</f>
-        <v>Lesser curvature of stomach</v>
+        <v>52</v>
+      </c>
+      <c r="B328" t="s">
+        <v>382</v>
       </c>
       <c r="C328" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
-        <v>54</v>
-      </c>
-      <c r="B329" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Liver")</f>
-        <v>Liver</v>
+        <v>52</v>
+      </c>
+      <c r="B329" t="s">
+        <v>383</v>
       </c>
       <c r="C329" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
-        <v>54</v>
-      </c>
-      <c r="B330" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Lower lobe, lung")</f>
-        <v>Lower lobe, lung</v>
+        <v>52</v>
+      </c>
+      <c r="B330" t="s">
+        <v>384</v>
       </c>
       <c r="C330" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
-        <v>54</v>
-      </c>
-      <c r="B331" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Lower third of esophagus")</f>
-        <v>Lower third of esophagus</v>
+        <v>52</v>
+      </c>
+      <c r="B331" t="s">
+        <v>385</v>
       </c>
       <c r="C331" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
-        <v>54</v>
-      </c>
-      <c r="B332" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Lower-inner quadrant of breast")</f>
-        <v>Lower-inner quadrant of breast</v>
+        <v>52</v>
+      </c>
+      <c r="B332" t="s">
+        <v>386</v>
       </c>
       <c r="C332" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
-        <v>54</v>
-      </c>
-      <c r="B333" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Lower-outer quadrant of breast")</f>
-        <v>Lower-outer quadrant of breast</v>
+        <v>52</v>
+      </c>
+      <c r="B333" t="s">
+        <v>387</v>
       </c>
       <c r="C333" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
-        <v>54</v>
-      </c>
-      <c r="B334" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Lung")</f>
-        <v>Lung</v>
+        <v>52</v>
+      </c>
+      <c r="B334" t="s">
+        <v>388</v>
       </c>
       <c r="C334" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
-        <v>54</v>
-      </c>
-      <c r="B335" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Lymph node")</f>
-        <v>Lymph node</v>
+        <v>52</v>
+      </c>
+      <c r="B335" t="s">
+        <v>389</v>
       </c>
       <c r="C335" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
-        <v>54</v>
-      </c>
-      <c r="B336" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Lymph nodes of axilla or arm")</f>
-        <v>Lymph nodes of axilla or arm</v>
+        <v>52</v>
+      </c>
+      <c r="B336" t="s">
+        <v>390</v>
       </c>
       <c r="C336" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
-        <v>54</v>
-      </c>
-      <c r="B337" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Lymph nodes of head, face and neck")</f>
-        <v>Lymph nodes of head, face and neck</v>
+        <v>52</v>
+      </c>
+      <c r="B337" t="s">
+        <v>391</v>
       </c>
       <c r="C337" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
-        <v>54</v>
-      </c>
-      <c r="B338" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Lymph nodes of inguinal region or leg")</f>
-        <v>Lymph nodes of inguinal region or leg</v>
+        <v>52</v>
+      </c>
+      <c r="B338" t="s">
+        <v>392</v>
       </c>
       <c r="C338" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
-        <v>54</v>
-      </c>
-      <c r="B339" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Lymphatic system")</f>
-        <v>Lymphatic system</v>
+        <v>52</v>
+      </c>
+      <c r="B339" t="s">
+        <v>393</v>
       </c>
       <c r="C339" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
-        <v>54</v>
-      </c>
-      <c r="B340" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Main bronchus")</f>
-        <v>Main bronchus</v>
+        <v>52</v>
+      </c>
+      <c r="B340" t="s">
+        <v>394</v>
       </c>
       <c r="C340" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
-        <v>54</v>
-      </c>
-      <c r="B341" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mammary Gland")</f>
-        <v>Mammary Gland</v>
+        <v>52</v>
+      </c>
+      <c r="B341" t="s">
+        <v>395</v>
       </c>
       <c r="C341" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
-        <v>54</v>
-      </c>
-      <c r="B342" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Meckel diverticulum")</f>
-        <v>Meckel diverticulum</v>
+        <v>52</v>
+      </c>
+      <c r="B342" t="s">
+        <v>396</v>
       </c>
       <c r="C342" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
-        <v>54</v>
-      </c>
-      <c r="B343" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Middle ear")</f>
-        <v>Middle ear</v>
+        <v>52</v>
+      </c>
+      <c r="B343" t="s">
+        <v>397</v>
       </c>
       <c r="C343" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
-        <v>54</v>
-      </c>
-      <c r="B344" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Middle lobe, lung")</f>
-        <v>Middle lobe, lung</v>
+        <v>52</v>
+      </c>
+      <c r="B344" t="s">
+        <v>398</v>
       </c>
       <c r="C344" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
-        <v>54</v>
-      </c>
-      <c r="B345" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Middle third of esophagus")</f>
-        <v>Middle third of esophagus</v>
+        <v>52</v>
+      </c>
+      <c r="B345" t="s">
+        <v>399</v>
       </c>
       <c r="C345" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
-        <v>54</v>
-      </c>
-      <c r="B346" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mouth")</f>
-        <v>Mouth</v>
+        <v>52</v>
+      </c>
+      <c r="B346" t="s">
+        <v>400</v>
       </c>
       <c r="C346" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
-        <v>54</v>
-      </c>
-      <c r="B347" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nasal cavity")</f>
-        <v>Nasal cavity</v>
+        <v>52</v>
+      </c>
+      <c r="B347" t="s">
+        <v>401</v>
       </c>
       <c r="C347" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
-        <v>54</v>
-      </c>
-      <c r="B348" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nervous system")</f>
-        <v>Nervous system</v>
+        <v>52</v>
+      </c>
+      <c r="B348" t="s">
+        <v>402</v>
       </c>
       <c r="C348" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
-        <v>54</v>
-      </c>
-      <c r="B349" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nipple")</f>
-        <v>Nipple</v>
+        <v>52</v>
+      </c>
+      <c r="B349" t="s">
+        <v>403</v>
       </c>
       <c r="C349" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
-        <v>54</v>
-      </c>
-      <c r="B350" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Occipital lobe")</f>
-        <v>Occipital lobe</v>
+        <v>52</v>
+      </c>
+      <c r="B350" t="s">
+        <v>404</v>
       </c>
       <c r="C350" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
-        <v>54</v>
-      </c>
-      <c r="B351" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Olfactory nerve")</f>
-        <v>Olfactory nerve</v>
+        <v>52</v>
+      </c>
+      <c r="B351" t="s">
+        <v>405</v>
       </c>
       <c r="C351" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
-        <v>54</v>
-      </c>
-      <c r="B352" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Optic nerve")</f>
-        <v>Optic nerve</v>
+        <v>52</v>
+      </c>
+      <c r="B352" t="s">
+        <v>406</v>
       </c>
       <c r="C352" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
-        <v>54</v>
-      </c>
-      <c r="B353" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ovary")</f>
-        <v>Ovary</v>
+        <v>52</v>
+      </c>
+      <c r="B353" t="s">
+        <v>407</v>
       </c>
       <c r="C353" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
-        <v>54</v>
-      </c>
-      <c r="B354" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Overlapping lesion of brain")</f>
-        <v>Overlapping lesion of brain</v>
+        <v>52</v>
+      </c>
+      <c r="B354" t="s">
+        <v>408</v>
       </c>
       <c r="C354" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
-        <v>54</v>
-      </c>
-      <c r="B355" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Overlapping lesion of brain and central nervous system")</f>
-        <v>Overlapping lesion of brain and central nervous system</v>
+        <v>52</v>
+      </c>
+      <c r="B355" t="s">
+        <v>409</v>
       </c>
       <c r="C355" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
-        <v>54</v>
-      </c>
-      <c r="B356" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Overlapping lesion of breast")</f>
-        <v>Overlapping lesion of breast</v>
+        <v>52</v>
+      </c>
+      <c r="B356" t="s">
+        <v>410</v>
       </c>
       <c r="C356" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
-        <v>54</v>
-      </c>
-      <c r="B357" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Overlapping lesion of cervix uteri")</f>
-        <v>Overlapping lesion of cervix uteri</v>
+        <v>52</v>
+      </c>
+      <c r="B357" t="s">
+        <v>411</v>
       </c>
       <c r="C357" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
-        <v>54</v>
-      </c>
-      <c r="B358" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Overlapping lesion of colon")</f>
-        <v>Overlapping lesion of colon</v>
+        <v>52</v>
+      </c>
+      <c r="B358" t="s">
+        <v>412</v>
       </c>
       <c r="C358" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
-        <v>54</v>
-      </c>
-      <c r="B359" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Overlapping lesion of esophagus")</f>
-        <v>Overlapping lesion of esophagus</v>
+        <v>52</v>
+      </c>
+      <c r="B359" t="s">
+        <v>413</v>
       </c>
       <c r="C359" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
-        <v>54</v>
-      </c>
-      <c r="B360" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Overlapping lesion of lung")</f>
-        <v>Overlapping lesion of lung</v>
+        <v>52</v>
+      </c>
+      <c r="B360" t="s">
+        <v>414</v>
       </c>
       <c r="C360" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
-        <v>54</v>
-      </c>
-      <c r="B361" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Overlapping lesion of pancreas")</f>
-        <v>Overlapping lesion of pancreas</v>
+        <v>52</v>
+      </c>
+      <c r="B361" t="s">
+        <v>415</v>
       </c>
       <c r="C361" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
-        <v>54</v>
-      </c>
-      <c r="B362" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Overlapping lesion of rectum, anus and anal canal")</f>
-        <v>Overlapping lesion of rectum, anus and anal canal</v>
+        <v>52</v>
+      </c>
+      <c r="B362" t="s">
+        <v>416</v>
       </c>
       <c r="C362" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
-        <v>54</v>
-      </c>
-      <c r="B363" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Overlapping lesion of small intestine")</f>
-        <v>Overlapping lesion of small intestine</v>
+        <v>52</v>
+      </c>
+      <c r="B363" t="s">
+        <v>417</v>
       </c>
       <c r="C363" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
-        <v>54</v>
-      </c>
-      <c r="B364" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Overlapping lesion of stomach")</f>
-        <v>Overlapping lesion of stomach</v>
+        <v>52</v>
+      </c>
+      <c r="B364" t="s">
+        <v>418</v>
       </c>
       <c r="C364" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
-        <v>54</v>
-      </c>
-      <c r="B365" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pancreas")</f>
-        <v>Pancreas</v>
+        <v>52</v>
+      </c>
+      <c r="B365" t="s">
+        <v>419</v>
       </c>
       <c r="C365" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
-        <v>54</v>
-      </c>
-      <c r="B366" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pancreatic duct")</f>
-        <v>Pancreatic duct</v>
+        <v>52</v>
+      </c>
+      <c r="B366" t="s">
+        <v>420</v>
       </c>
       <c r="C366" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
-        <v>54</v>
-      </c>
-      <c r="B367" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Parietal lobe")</f>
-        <v>Parietal lobe</v>
+        <v>52</v>
+      </c>
+      <c r="B367" t="s">
+        <v>421</v>
       </c>
       <c r="C367" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
-        <v>54</v>
-      </c>
-      <c r="B368" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pelvic lymph nodes")</f>
-        <v>Pelvic lymph nodes</v>
+        <v>52</v>
+      </c>
+      <c r="B368" t="s">
+        <v>422</v>
       </c>
       <c r="C368" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
-        <v>54</v>
-      </c>
-      <c r="B369" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Peripheral Nerves")</f>
-        <v>Peripheral Nerves</v>
+        <v>52</v>
+      </c>
+      <c r="B369" t="s">
+        <v>423</v>
       </c>
       <c r="C369" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
-        <v>54</v>
-      </c>
-      <c r="B370" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Prostate Gland")</f>
-        <v>Prostate Gland</v>
+        <v>52</v>
+      </c>
+      <c r="B370" t="s">
+        <v>424</v>
       </c>
       <c r="C370" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
-        <v>54</v>
-      </c>
-      <c r="B371" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pylorus")</f>
-        <v>Pylorus</v>
+        <v>52</v>
+      </c>
+      <c r="B371" t="s">
+        <v>425</v>
       </c>
       <c r="C371" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
-        <v>54</v>
-      </c>
-      <c r="B372" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Rectum")</f>
-        <v>Rectum</v>
+        <v>52</v>
+      </c>
+      <c r="B372" t="s">
+        <v>426</v>
       </c>
       <c r="C372" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
-        <v>54</v>
-      </c>
-      <c r="B373" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Reticuloendothelial system")</f>
-        <v>Reticuloendothelial system</v>
+        <v>52</v>
+      </c>
+      <c r="B373" t="s">
+        <v>427</v>
       </c>
       <c r="C373" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
-        <v>54</v>
-      </c>
-      <c r="B374" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sigmoid colon")</f>
-        <v>Sigmoid colon</v>
+        <v>52</v>
+      </c>
+      <c r="B374" t="s">
+        <v>428</v>
       </c>
       <c r="C374" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
-        <v>54</v>
-      </c>
-      <c r="B375" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Skin")</f>
-        <v>Skin</v>
+        <v>52</v>
+      </c>
+      <c r="B375" t="s">
+        <v>429</v>
       </c>
       <c r="C375" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
-        <v>54</v>
-      </c>
-      <c r="B376" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Skin of lower limb and hip")</f>
-        <v>Skin of lower limb and hip</v>
+        <v>52</v>
+      </c>
+      <c r="B376" t="s">
+        <v>430</v>
       </c>
       <c r="C376" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
-        <v>54</v>
-      </c>
-      <c r="B377" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Skin of other and unspecified parts of face")</f>
-        <v>Skin of other and unspecified parts of face</v>
+        <v>52</v>
+      </c>
+      <c r="B377" t="s">
+        <v>431</v>
       </c>
       <c r="C377" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
-        <v>54</v>
-      </c>
-      <c r="B378" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Skin of scalp and neck")</f>
-        <v>Skin of scalp and neck</v>
+        <v>52</v>
+      </c>
+      <c r="B378" t="s">
+        <v>432</v>
       </c>
       <c r="C378" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
-        <v>54</v>
-      </c>
-      <c r="B379" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Skin of trunk")</f>
-        <v>Skin of trunk</v>
+        <v>52</v>
+      </c>
+      <c r="B379" t="s">
+        <v>433</v>
       </c>
       <c r="C379" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
-        <v>54</v>
-      </c>
-      <c r="B380" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Skin of upper limb and shoulder")</f>
-        <v>Skin of upper limb and shoulder</v>
+        <v>52</v>
+      </c>
+      <c r="B380" t="s">
+        <v>434</v>
       </c>
       <c r="C380" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A381" t="s">
-        <v>54</v>
-      </c>
-      <c r="B381" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Small intestine")</f>
-        <v>Small intestine</v>
+        <v>52</v>
+      </c>
+      <c r="B381" t="s">
+        <v>435</v>
       </c>
       <c r="C381" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
-        <v>54</v>
-      </c>
-      <c r="B382" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Spinal cord")</f>
-        <v>Spinal cord</v>
+        <v>52</v>
+      </c>
+      <c r="B382" t="s">
+        <v>436</v>
       </c>
       <c r="C382" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
-        <v>54</v>
-      </c>
-      <c r="B383" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Spleen")</f>
-        <v>Spleen</v>
+        <v>52</v>
+      </c>
+      <c r="B383" t="s">
+        <v>437</v>
       </c>
       <c r="C383" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A384" t="s">
-        <v>54</v>
-      </c>
-      <c r="B384" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Splenic flexure of colon")</f>
-        <v>Splenic flexure of colon</v>
+        <v>52</v>
+      </c>
+      <c r="B384" t="s">
+        <v>438</v>
       </c>
       <c r="C384" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
-        <v>54</v>
-      </c>
-      <c r="B385" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Stomach")</f>
-        <v>Stomach</v>
+        <v>52</v>
+      </c>
+      <c r="B385" t="s">
+        <v>439</v>
       </c>
       <c r="C385" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
-        <v>54</v>
-      </c>
-      <c r="B386" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Tail of pancreas")</f>
-        <v>Tail of pancreas</v>
+        <v>52</v>
+      </c>
+      <c r="B386" t="s">
+        <v>440</v>
       </c>
       <c r="C386" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
-        <v>54</v>
-      </c>
-      <c r="B387" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Temporal lobe")</f>
-        <v>Temporal lobe</v>
+        <v>52</v>
+      </c>
+      <c r="B387" t="s">
+        <v>441</v>
       </c>
       <c r="C387" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
-        <v>54</v>
-      </c>
-      <c r="B388" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Testis")</f>
-        <v>Testis</v>
+        <v>52</v>
+      </c>
+      <c r="B388" t="s">
+        <v>442</v>
       </c>
       <c r="C388" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
-        <v>54</v>
-      </c>
-      <c r="B389" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Thoracic esophagus")</f>
-        <v>Thoracic esophagus</v>
+        <v>52</v>
+      </c>
+      <c r="B389" t="s">
+        <v>443</v>
       </c>
       <c r="C389" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
-        <v>54</v>
-      </c>
-      <c r="B390" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Throat")</f>
-        <v>Throat</v>
+        <v>52</v>
+      </c>
+      <c r="B390" t="s">
+        <v>444</v>
       </c>
       <c r="C390" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
-        <v>54</v>
-      </c>
-      <c r="B391" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Thymus")</f>
-        <v>Thymus</v>
+        <v>52</v>
+      </c>
+      <c r="B391" t="s">
+        <v>445</v>
       </c>
       <c r="C391" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
-        <v>54</v>
-      </c>
-      <c r="B392" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Tongue")</f>
-        <v>Tongue</v>
+        <v>52</v>
+      </c>
+      <c r="B392" t="s">
+        <v>446</v>
       </c>
       <c r="C392" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
-        <v>54</v>
-      </c>
-      <c r="B393" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Trachea")</f>
-        <v>Trachea</v>
+        <v>52</v>
+      </c>
+      <c r="B393" t="s">
+        <v>447</v>
       </c>
       <c r="C393" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
-        <v>54</v>
-      </c>
-      <c r="B394" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Transverse colon")</f>
-        <v>Transverse colon</v>
+        <v>52</v>
+      </c>
+      <c r="B394" t="s">
+        <v>448</v>
       </c>
       <c r="C394" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
-        <v>54</v>
-      </c>
-      <c r="B395" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Undescended testis")</f>
-        <v>Undescended testis</v>
+        <v>52</v>
+      </c>
+      <c r="B395" t="s">
+        <v>449</v>
       </c>
       <c r="C395" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
-        <v>54</v>
-      </c>
-      <c r="B396" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Unspecified")</f>
-        <v>Unspecified</v>
+        <v>52</v>
+      </c>
+      <c r="B396" t="s">
+        <v>186</v>
       </c>
       <c r="C396" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
-        <v>54</v>
-      </c>
-      <c r="B397" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Upper lobe, lung")</f>
-        <v>Upper lobe, lung</v>
+        <v>52</v>
+      </c>
+      <c r="B397" t="s">
+        <v>450</v>
       </c>
       <c r="C397" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
-        <v>54</v>
-      </c>
-      <c r="B398" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Upper third of esophagus")</f>
-        <v>Upper third of esophagus</v>
+        <v>52</v>
+      </c>
+      <c r="B398" t="s">
+        <v>451</v>
       </c>
       <c r="C398" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
-        <v>54</v>
-      </c>
-      <c r="B399" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Upper-inner quadrant of breast")</f>
-        <v>Upper-inner quadrant of breast</v>
+        <v>52</v>
+      </c>
+      <c r="B399" t="s">
+        <v>452</v>
       </c>
       <c r="C399" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
-        <v>54</v>
-      </c>
-      <c r="B400" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Upper-outer quadrant of breast")</f>
-        <v>Upper-outer quadrant of breast</v>
+        <v>52</v>
+      </c>
+      <c r="B400" t="s">
+        <v>453</v>
       </c>
       <c r="C400" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
-        <v>54</v>
-      </c>
-      <c r="B401" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Uterus")</f>
-        <v>Uterus</v>
+        <v>52</v>
+      </c>
+      <c r="B401" t="s">
+        <v>454</v>
       </c>
       <c r="C401" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
-        <v>54</v>
-      </c>
-      <c r="B402" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vagina")</f>
-        <v>Vagina</v>
+        <v>52</v>
+      </c>
+      <c r="B402" t="s">
+        <v>455</v>
       </c>
       <c r="C402" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
-        <v>54</v>
-      </c>
-      <c r="B403" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ventricle")</f>
-        <v>Ventricle</v>
+        <v>52</v>
+      </c>
+      <c r="B403" t="s">
+        <v>456</v>
       </c>
       <c r="C403" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/www/publications_manifest.xlsx
+++ b/www/publications_manifest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vchung/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAB72BB-04A3-4045-82C1-37EEF60DBD22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DF532F-C627-6B46-90AA-B05D6A52787A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="460" windowWidth="24600" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="standard_terms" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">standard_terms!$A$1:$C$403</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">standard_terms!$A$1:$C$405</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="459">
   <si>
     <t>doi</t>
   </si>
@@ -1406,6 +1406,12 @@
   </si>
   <si>
     <t>Ventricle</t>
+  </si>
+  <si>
+    <t>Breast Carcinoma</t>
+  </si>
+  <si>
+    <t>Hepatocellular Carcinoma</t>
   </si>
 </sst>
 </file>
@@ -2356,7 +2362,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{5665570D-4078-A640-B6DB-74F3B4D6739D}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$270:$B$403</xm:f>
+            <xm:f>standard_terms!$B$272:$B$405</xm:f>
           </x14:formula1>
           <xm:sqref>AA2:AA1048576</xm:sqref>
         </x14:dataValidation>
@@ -2368,7 +2374,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{954816C5-4C70-2145-8495-033359861269}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$145:$B$269</xm:f>
+            <xm:f>standard_terms!$B$145:$B$271</xm:f>
           </x14:formula1>
           <xm:sqref>Z2:Z1048576</xm:sqref>
         </x14:dataValidation>
@@ -2619,7 +2625,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C403"/>
+  <dimension ref="A1:C405"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4424,7 +4430,7 @@
         <v>50</v>
       </c>
       <c r="B164" t="s">
-        <v>219</v>
+        <v>457</v>
       </c>
       <c r="C164" t="s">
         <v>199</v>
@@ -4435,7 +4441,7 @@
         <v>50</v>
       </c>
       <c r="B165" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C165" t="s">
         <v>199</v>
@@ -4446,7 +4452,7 @@
         <v>50</v>
       </c>
       <c r="B166" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C166" t="s">
         <v>199</v>
@@ -4457,7 +4463,7 @@
         <v>50</v>
       </c>
       <c r="B167" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C167" t="s">
         <v>199</v>
@@ -4468,7 +4474,7 @@
         <v>50</v>
       </c>
       <c r="B168" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C168" t="s">
         <v>199</v>
@@ -4479,7 +4485,7 @@
         <v>50</v>
       </c>
       <c r="B169" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C169" t="s">
         <v>199</v>
@@ -4490,7 +4496,7 @@
         <v>50</v>
       </c>
       <c r="B170" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C170" t="s">
         <v>199</v>
@@ -4501,7 +4507,7 @@
         <v>50</v>
       </c>
       <c r="B171" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C171" t="s">
         <v>199</v>
@@ -4512,7 +4518,7 @@
         <v>50</v>
       </c>
       <c r="B172" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C172" t="s">
         <v>199</v>
@@ -4523,7 +4529,7 @@
         <v>50</v>
       </c>
       <c r="B173" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C173" t="s">
         <v>199</v>
@@ -4534,7 +4540,7 @@
         <v>50</v>
       </c>
       <c r="B174" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C174" t="s">
         <v>199</v>
@@ -4545,7 +4551,7 @@
         <v>50</v>
       </c>
       <c r="B175" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C175" t="s">
         <v>199</v>
@@ -4556,7 +4562,7 @@
         <v>50</v>
       </c>
       <c r="B176" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C176" t="s">
         <v>199</v>
@@ -4567,7 +4573,7 @@
         <v>50</v>
       </c>
       <c r="B177" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C177" t="s">
         <v>199</v>
@@ -4578,7 +4584,7 @@
         <v>50</v>
       </c>
       <c r="B178" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C178" t="s">
         <v>199</v>
@@ -4589,7 +4595,7 @@
         <v>50</v>
       </c>
       <c r="B179" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C179" t="s">
         <v>199</v>
@@ -4600,7 +4606,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C180" t="s">
         <v>199</v>
@@ -4611,7 +4617,7 @@
         <v>50</v>
       </c>
       <c r="B181" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C181" t="s">
         <v>199</v>
@@ -4622,7 +4628,7 @@
         <v>50</v>
       </c>
       <c r="B182" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C182" t="s">
         <v>199</v>
@@ -4633,7 +4639,7 @@
         <v>50</v>
       </c>
       <c r="B183" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C183" t="s">
         <v>199</v>
@@ -4644,7 +4650,7 @@
         <v>50</v>
       </c>
       <c r="B184" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C184" t="s">
         <v>199</v>
@@ -4655,7 +4661,7 @@
         <v>50</v>
       </c>
       <c r="B185" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C185" t="s">
         <v>199</v>
@@ -4666,7 +4672,7 @@
         <v>50</v>
       </c>
       <c r="B186" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C186" t="s">
         <v>199</v>
@@ -4677,7 +4683,7 @@
         <v>50</v>
       </c>
       <c r="B187" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C187" t="s">
         <v>199</v>
@@ -4688,7 +4694,7 @@
         <v>50</v>
       </c>
       <c r="B188" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C188" t="s">
         <v>199</v>
@@ -4699,7 +4705,7 @@
         <v>50</v>
       </c>
       <c r="B189" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C189" t="s">
         <v>199</v>
@@ -4710,7 +4716,7 @@
         <v>50</v>
       </c>
       <c r="B190" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C190" t="s">
         <v>199</v>
@@ -4721,7 +4727,7 @@
         <v>50</v>
       </c>
       <c r="B191" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C191" t="s">
         <v>199</v>
@@ -4732,7 +4738,7 @@
         <v>50</v>
       </c>
       <c r="B192" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -4743,7 +4749,7 @@
         <v>50</v>
       </c>
       <c r="B193" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C193" t="s">
         <v>199</v>
@@ -4754,7 +4760,7 @@
         <v>50</v>
       </c>
       <c r="B194" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C194" t="s">
         <v>199</v>
@@ -4765,7 +4771,7 @@
         <v>50</v>
       </c>
       <c r="B195" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C195" t="s">
         <v>199</v>
@@ -4776,7 +4782,7 @@
         <v>50</v>
       </c>
       <c r="B196" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C196" t="s">
         <v>199</v>
@@ -4787,7 +4793,7 @@
         <v>50</v>
       </c>
       <c r="B197" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C197" t="s">
         <v>199</v>
@@ -4798,7 +4804,7 @@
         <v>50</v>
       </c>
       <c r="B198" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C198" t="s">
         <v>199</v>
@@ -4809,7 +4815,7 @@
         <v>50</v>
       </c>
       <c r="B199" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C199" t="s">
         <v>199</v>
@@ -4820,7 +4826,7 @@
         <v>50</v>
       </c>
       <c r="B200" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C200" t="s">
         <v>199</v>
@@ -4831,7 +4837,7 @@
         <v>50</v>
       </c>
       <c r="B201" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C201" t="s">
         <v>199</v>
@@ -4842,7 +4848,7 @@
         <v>50</v>
       </c>
       <c r="B202" t="s">
-        <v>257</v>
+        <v>458</v>
       </c>
       <c r="C202" t="s">
         <v>199</v>
@@ -4853,7 +4859,7 @@
         <v>50</v>
       </c>
       <c r="B203" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C203" t="s">
         <v>199</v>
@@ -4864,7 +4870,7 @@
         <v>50</v>
       </c>
       <c r="B204" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C204" t="s">
         <v>199</v>
@@ -4875,7 +4881,7 @@
         <v>50</v>
       </c>
       <c r="B205" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C205" t="s">
         <v>199</v>
@@ -4886,7 +4892,7 @@
         <v>50</v>
       </c>
       <c r="B206" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C206" t="s">
         <v>199</v>
@@ -4897,7 +4903,7 @@
         <v>50</v>
       </c>
       <c r="B207" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C207" t="s">
         <v>199</v>
@@ -4908,7 +4914,7 @@
         <v>50</v>
       </c>
       <c r="B208" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C208" t="s">
         <v>199</v>
@@ -4919,7 +4925,7 @@
         <v>50</v>
       </c>
       <c r="B209" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C209" t="s">
         <v>199</v>
@@ -4930,7 +4936,7 @@
         <v>50</v>
       </c>
       <c r="B210" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C210" t="s">
         <v>199</v>
@@ -4941,7 +4947,7 @@
         <v>50</v>
       </c>
       <c r="B211" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C211" t="s">
         <v>199</v>
@@ -4952,7 +4958,7 @@
         <v>50</v>
       </c>
       <c r="B212" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C212" t="s">
         <v>199</v>
@@ -4963,7 +4969,7 @@
         <v>50</v>
       </c>
       <c r="B213" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C213" t="s">
         <v>199</v>
@@ -4974,7 +4980,7 @@
         <v>50</v>
       </c>
       <c r="B214" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C214" t="s">
         <v>199</v>
@@ -4985,7 +4991,7 @@
         <v>50</v>
       </c>
       <c r="B215" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C215" t="s">
         <v>199</v>
@@ -4996,7 +5002,7 @@
         <v>50</v>
       </c>
       <c r="B216" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C216" t="s">
         <v>199</v>
@@ -5007,7 +5013,7 @@
         <v>50</v>
       </c>
       <c r="B217" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C217" t="s">
         <v>199</v>
@@ -5018,7 +5024,7 @@
         <v>50</v>
       </c>
       <c r="B218" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C218" t="s">
         <v>199</v>
@@ -5029,7 +5035,7 @@
         <v>50</v>
       </c>
       <c r="B219" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C219" t="s">
         <v>199</v>
@@ -5040,7 +5046,7 @@
         <v>50</v>
       </c>
       <c r="B220" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C220" t="s">
         <v>199</v>
@@ -5051,7 +5057,7 @@
         <v>50</v>
       </c>
       <c r="B221" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C221" t="s">
         <v>199</v>
@@ -5062,7 +5068,7 @@
         <v>50</v>
       </c>
       <c r="B222" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C222" t="s">
         <v>199</v>
@@ -5073,7 +5079,7 @@
         <v>50</v>
       </c>
       <c r="B223" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C223" t="s">
         <v>199</v>
@@ -5084,7 +5090,7 @@
         <v>50</v>
       </c>
       <c r="B224" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C224" t="s">
         <v>199</v>
@@ -5095,7 +5101,7 @@
         <v>50</v>
       </c>
       <c r="B225" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C225" t="s">
         <v>199</v>
@@ -5106,7 +5112,7 @@
         <v>50</v>
       </c>
       <c r="B226" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C226" t="s">
         <v>199</v>
@@ -5117,7 +5123,7 @@
         <v>50</v>
       </c>
       <c r="B227" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C227" t="s">
         <v>199</v>
@@ -5128,7 +5134,7 @@
         <v>50</v>
       </c>
       <c r="B228" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C228" t="s">
         <v>199</v>
@@ -5139,7 +5145,7 @@
         <v>50</v>
       </c>
       <c r="B229" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C229" t="s">
         <v>199</v>
@@ -5150,7 +5156,7 @@
         <v>50</v>
       </c>
       <c r="B230" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C230" t="s">
         <v>199</v>
@@ -5161,7 +5167,7 @@
         <v>50</v>
       </c>
       <c r="B231" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C231" t="s">
         <v>199</v>
@@ -5172,7 +5178,7 @@
         <v>50</v>
       </c>
       <c r="B232" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C232" t="s">
         <v>199</v>
@@ -5183,7 +5189,7 @@
         <v>50</v>
       </c>
       <c r="B233" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C233" t="s">
         <v>199</v>
@@ -5194,7 +5200,7 @@
         <v>50</v>
       </c>
       <c r="B234" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C234" t="s">
         <v>199</v>
@@ -5205,7 +5211,7 @@
         <v>50</v>
       </c>
       <c r="B235" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C235" t="s">
         <v>199</v>
@@ -5216,7 +5222,7 @@
         <v>50</v>
       </c>
       <c r="B236" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C236" t="s">
         <v>199</v>
@@ -5227,7 +5233,7 @@
         <v>50</v>
       </c>
       <c r="B237" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C237" t="s">
         <v>199</v>
@@ -5238,7 +5244,7 @@
         <v>50</v>
       </c>
       <c r="B238" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C238" t="s">
         <v>199</v>
@@ -5249,7 +5255,7 @@
         <v>50</v>
       </c>
       <c r="B239" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C239" t="s">
         <v>199</v>
@@ -5260,7 +5266,7 @@
         <v>50</v>
       </c>
       <c r="B240" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C240" t="s">
         <v>199</v>
@@ -5271,7 +5277,7 @@
         <v>50</v>
       </c>
       <c r="B241" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C241" t="s">
         <v>199</v>
@@ -5282,7 +5288,7 @@
         <v>50</v>
       </c>
       <c r="B242" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C242" t="s">
         <v>199</v>
@@ -5293,7 +5299,7 @@
         <v>50</v>
       </c>
       <c r="B243" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C243" t="s">
         <v>199</v>
@@ -5304,7 +5310,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C244" t="s">
         <v>199</v>
@@ -5315,7 +5321,7 @@
         <v>50</v>
       </c>
       <c r="B245" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C245" t="s">
         <v>199</v>
@@ -5326,7 +5332,7 @@
         <v>50</v>
       </c>
       <c r="B246" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C246" t="s">
         <v>199</v>
@@ -5337,7 +5343,7 @@
         <v>50</v>
       </c>
       <c r="B247" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C247" t="s">
         <v>199</v>
@@ -5348,7 +5354,7 @@
         <v>50</v>
       </c>
       <c r="B248" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C248" t="s">
         <v>199</v>
@@ -5359,7 +5365,7 @@
         <v>50</v>
       </c>
       <c r="B249" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C249" t="s">
         <v>199</v>
@@ -5370,7 +5376,7 @@
         <v>50</v>
       </c>
       <c r="B250" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C250" t="s">
         <v>199</v>
@@ -5381,7 +5387,7 @@
         <v>50</v>
       </c>
       <c r="B251" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C251" t="s">
         <v>199</v>
@@ -5392,7 +5398,7 @@
         <v>50</v>
       </c>
       <c r="B252" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C252" t="s">
         <v>199</v>
@@ -5403,7 +5409,7 @@
         <v>50</v>
       </c>
       <c r="B253" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C253" t="s">
         <v>199</v>
@@ -5414,7 +5420,7 @@
         <v>50</v>
       </c>
       <c r="B254" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C254" t="s">
         <v>199</v>
@@ -5425,7 +5431,7 @@
         <v>50</v>
       </c>
       <c r="B255" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C255" t="s">
         <v>199</v>
@@ -5436,7 +5442,7 @@
         <v>50</v>
       </c>
       <c r="B256" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C256" t="s">
         <v>199</v>
@@ -5447,7 +5453,7 @@
         <v>50</v>
       </c>
       <c r="B257" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C257" t="s">
         <v>199</v>
@@ -5458,7 +5464,7 @@
         <v>50</v>
       </c>
       <c r="B258" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C258" t="s">
         <v>199</v>
@@ -5469,7 +5475,7 @@
         <v>50</v>
       </c>
       <c r="B259" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C259" t="s">
         <v>199</v>
@@ -5480,7 +5486,7 @@
         <v>50</v>
       </c>
       <c r="B260" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C260" t="s">
         <v>199</v>
@@ -5491,7 +5497,7 @@
         <v>50</v>
       </c>
       <c r="B261" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C261" t="s">
         <v>199</v>
@@ -5502,7 +5508,7 @@
         <v>50</v>
       </c>
       <c r="B262" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C262" t="s">
         <v>199</v>
@@ -5513,7 +5519,7 @@
         <v>50</v>
       </c>
       <c r="B263" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C263" t="s">
         <v>199</v>
@@ -5524,7 +5530,7 @@
         <v>50</v>
       </c>
       <c r="B264" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C264" t="s">
         <v>199</v>
@@ -5535,7 +5541,7 @@
         <v>50</v>
       </c>
       <c r="B265" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C265" t="s">
         <v>199</v>
@@ -5546,7 +5552,7 @@
         <v>50</v>
       </c>
       <c r="B266" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C266" t="s">
         <v>199</v>
@@ -5557,7 +5563,7 @@
         <v>50</v>
       </c>
       <c r="B267" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C267" t="s">
         <v>199</v>
@@ -5568,7 +5574,7 @@
         <v>50</v>
       </c>
       <c r="B268" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C268" t="s">
         <v>199</v>
@@ -5579,7 +5585,7 @@
         <v>50</v>
       </c>
       <c r="B269" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C269" t="s">
         <v>199</v>
@@ -5587,7 +5593,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="B270" t="s">
+        <v>323</v>
       </c>
       <c r="C270" t="s">
         <v>199</v>
@@ -5595,10 +5604,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B271" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C271" t="s">
         <v>199</v>
@@ -5608,9 +5617,6 @@
       <c r="A272" t="s">
         <v>52</v>
       </c>
-      <c r="B272" t="s">
-        <v>326</v>
-      </c>
       <c r="C272" t="s">
         <v>199</v>
       </c>
@@ -5620,7 +5626,7 @@
         <v>52</v>
       </c>
       <c r="B273" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C273" t="s">
         <v>199</v>
@@ -5631,7 +5637,7 @@
         <v>52</v>
       </c>
       <c r="B274" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C274" t="s">
         <v>199</v>
@@ -5642,7 +5648,7 @@
         <v>52</v>
       </c>
       <c r="B275" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C275" t="s">
         <v>199</v>
@@ -5653,7 +5659,7 @@
         <v>52</v>
       </c>
       <c r="B276" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C276" t="s">
         <v>199</v>
@@ -5664,7 +5670,7 @@
         <v>52</v>
       </c>
       <c r="B277" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C277" t="s">
         <v>199</v>
@@ -5675,7 +5681,7 @@
         <v>52</v>
       </c>
       <c r="B278" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C278" t="s">
         <v>199</v>
@@ -5686,7 +5692,7 @@
         <v>52</v>
       </c>
       <c r="B279" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C279" t="s">
         <v>199</v>
@@ -5697,7 +5703,7 @@
         <v>52</v>
       </c>
       <c r="B280" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C280" t="s">
         <v>199</v>
@@ -5708,7 +5714,7 @@
         <v>52</v>
       </c>
       <c r="B281" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C281" t="s">
         <v>199</v>
@@ -5719,7 +5725,7 @@
         <v>52</v>
       </c>
       <c r="B282" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C282" t="s">
         <v>199</v>
@@ -5730,7 +5736,7 @@
         <v>52</v>
       </c>
       <c r="B283" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C283" t="s">
         <v>199</v>
@@ -5741,7 +5747,7 @@
         <v>52</v>
       </c>
       <c r="B284" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C284" t="s">
         <v>199</v>
@@ -5752,7 +5758,7 @@
         <v>52</v>
       </c>
       <c r="B285" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C285" t="s">
         <v>199</v>
@@ -5763,7 +5769,7 @@
         <v>52</v>
       </c>
       <c r="B286" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C286" t="s">
         <v>199</v>
@@ -5774,7 +5780,7 @@
         <v>52</v>
       </c>
       <c r="B287" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C287" t="s">
         <v>199</v>
@@ -5785,7 +5791,7 @@
         <v>52</v>
       </c>
       <c r="B288" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C288" t="s">
         <v>199</v>
@@ -5796,7 +5802,7 @@
         <v>52</v>
       </c>
       <c r="B289" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C289" t="s">
         <v>199</v>
@@ -5807,7 +5813,7 @@
         <v>52</v>
       </c>
       <c r="B290" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C290" t="s">
         <v>199</v>
@@ -5818,7 +5824,7 @@
         <v>52</v>
       </c>
       <c r="B291" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C291" t="s">
         <v>199</v>
@@ -5829,7 +5835,7 @@
         <v>52</v>
       </c>
       <c r="B292" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C292" t="s">
         <v>199</v>
@@ -5840,7 +5846,7 @@
         <v>52</v>
       </c>
       <c r="B293" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C293" t="s">
         <v>199</v>
@@ -5851,7 +5857,7 @@
         <v>52</v>
       </c>
       <c r="B294" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C294" t="s">
         <v>199</v>
@@ -5862,7 +5868,7 @@
         <v>52</v>
       </c>
       <c r="B295" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C295" t="s">
         <v>199</v>
@@ -5873,7 +5879,7 @@
         <v>52</v>
       </c>
       <c r="B296" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C296" t="s">
         <v>199</v>
@@ -5884,7 +5890,7 @@
         <v>52</v>
       </c>
       <c r="B297" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C297" t="s">
         <v>199</v>
@@ -5895,7 +5901,7 @@
         <v>52</v>
       </c>
       <c r="B298" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C298" t="s">
         <v>199</v>
@@ -5906,7 +5912,7 @@
         <v>52</v>
       </c>
       <c r="B299" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C299" t="s">
         <v>199</v>
@@ -5917,7 +5923,7 @@
         <v>52</v>
       </c>
       <c r="B300" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C300" t="s">
         <v>199</v>
@@ -5928,7 +5934,7 @@
         <v>52</v>
       </c>
       <c r="B301" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C301" t="s">
         <v>199</v>
@@ -5939,7 +5945,7 @@
         <v>52</v>
       </c>
       <c r="B302" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C302" t="s">
         <v>199</v>
@@ -5950,7 +5956,7 @@
         <v>52</v>
       </c>
       <c r="B303" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C303" t="s">
         <v>199</v>
@@ -5961,7 +5967,7 @@
         <v>52</v>
       </c>
       <c r="B304" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C304" t="s">
         <v>199</v>
@@ -5972,7 +5978,7 @@
         <v>52</v>
       </c>
       <c r="B305" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C305" t="s">
         <v>199</v>
@@ -5983,7 +5989,7 @@
         <v>52</v>
       </c>
       <c r="B306" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C306" t="s">
         <v>199</v>
@@ -5994,7 +6000,7 @@
         <v>52</v>
       </c>
       <c r="B307" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C307" t="s">
         <v>199</v>
@@ -6005,7 +6011,7 @@
         <v>52</v>
       </c>
       <c r="B308" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C308" t="s">
         <v>199</v>
@@ -6016,7 +6022,7 @@
         <v>52</v>
       </c>
       <c r="B309" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C309" t="s">
         <v>199</v>
@@ -6027,7 +6033,7 @@
         <v>52</v>
       </c>
       <c r="B310" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C310" t="s">
         <v>199</v>
@@ -6038,7 +6044,7 @@
         <v>52</v>
       </c>
       <c r="B311" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C311" t="s">
         <v>199</v>
@@ -6049,7 +6055,7 @@
         <v>52</v>
       </c>
       <c r="B312" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C312" t="s">
         <v>199</v>
@@ -6060,7 +6066,7 @@
         <v>52</v>
       </c>
       <c r="B313" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C313" t="s">
         <v>199</v>
@@ -6071,7 +6077,7 @@
         <v>52</v>
       </c>
       <c r="B314" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C314" t="s">
         <v>199</v>
@@ -6082,7 +6088,7 @@
         <v>52</v>
       </c>
       <c r="B315" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C315" t="s">
         <v>199</v>
@@ -6093,7 +6099,7 @@
         <v>52</v>
       </c>
       <c r="B316" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C316" t="s">
         <v>199</v>
@@ -6104,7 +6110,7 @@
         <v>52</v>
       </c>
       <c r="B317" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C317" t="s">
         <v>199</v>
@@ -6115,7 +6121,7 @@
         <v>52</v>
       </c>
       <c r="B318" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C318" t="s">
         <v>199</v>
@@ -6126,7 +6132,7 @@
         <v>52</v>
       </c>
       <c r="B319" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C319" t="s">
         <v>199</v>
@@ -6137,7 +6143,7 @@
         <v>52</v>
       </c>
       <c r="B320" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C320" t="s">
         <v>199</v>
@@ -6148,7 +6154,7 @@
         <v>52</v>
       </c>
       <c r="B321" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C321" t="s">
         <v>199</v>
@@ -6159,7 +6165,7 @@
         <v>52</v>
       </c>
       <c r="B322" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C322" t="s">
         <v>199</v>
@@ -6170,7 +6176,7 @@
         <v>52</v>
       </c>
       <c r="B323" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C323" t="s">
         <v>199</v>
@@ -6181,7 +6187,7 @@
         <v>52</v>
       </c>
       <c r="B324" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C324" t="s">
         <v>199</v>
@@ -6192,7 +6198,7 @@
         <v>52</v>
       </c>
       <c r="B325" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C325" t="s">
         <v>199</v>
@@ -6203,7 +6209,7 @@
         <v>52</v>
       </c>
       <c r="B326" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C326" t="s">
         <v>199</v>
@@ -6214,7 +6220,7 @@
         <v>52</v>
       </c>
       <c r="B327" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C327" t="s">
         <v>199</v>
@@ -6225,7 +6231,7 @@
         <v>52</v>
       </c>
       <c r="B328" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C328" t="s">
         <v>199</v>
@@ -6236,7 +6242,7 @@
         <v>52</v>
       </c>
       <c r="B329" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C329" t="s">
         <v>199</v>
@@ -6247,7 +6253,7 @@
         <v>52</v>
       </c>
       <c r="B330" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C330" t="s">
         <v>199</v>
@@ -6258,7 +6264,7 @@
         <v>52</v>
       </c>
       <c r="B331" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C331" t="s">
         <v>199</v>
@@ -6269,7 +6275,7 @@
         <v>52</v>
       </c>
       <c r="B332" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C332" t="s">
         <v>199</v>
@@ -6280,7 +6286,7 @@
         <v>52</v>
       </c>
       <c r="B333" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C333" t="s">
         <v>199</v>
@@ -6291,7 +6297,7 @@
         <v>52</v>
       </c>
       <c r="B334" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C334" t="s">
         <v>199</v>
@@ -6302,7 +6308,7 @@
         <v>52</v>
       </c>
       <c r="B335" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C335" t="s">
         <v>199</v>
@@ -6313,7 +6319,7 @@
         <v>52</v>
       </c>
       <c r="B336" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C336" t="s">
         <v>199</v>
@@ -6324,7 +6330,7 @@
         <v>52</v>
       </c>
       <c r="B337" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C337" t="s">
         <v>199</v>
@@ -6335,7 +6341,7 @@
         <v>52</v>
       </c>
       <c r="B338" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C338" t="s">
         <v>199</v>
@@ -6346,7 +6352,7 @@
         <v>52</v>
       </c>
       <c r="B339" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C339" t="s">
         <v>199</v>
@@ -6357,7 +6363,7 @@
         <v>52</v>
       </c>
       <c r="B340" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C340" t="s">
         <v>199</v>
@@ -6368,7 +6374,7 @@
         <v>52</v>
       </c>
       <c r="B341" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C341" t="s">
         <v>199</v>
@@ -6379,7 +6385,7 @@
         <v>52</v>
       </c>
       <c r="B342" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C342" t="s">
         <v>199</v>
@@ -6390,7 +6396,7 @@
         <v>52</v>
       </c>
       <c r="B343" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C343" t="s">
         <v>199</v>
@@ -6401,7 +6407,7 @@
         <v>52</v>
       </c>
       <c r="B344" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C344" t="s">
         <v>199</v>
@@ -6412,7 +6418,7 @@
         <v>52</v>
       </c>
       <c r="B345" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C345" t="s">
         <v>199</v>
@@ -6423,7 +6429,7 @@
         <v>52</v>
       </c>
       <c r="B346" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C346" t="s">
         <v>199</v>
@@ -6434,7 +6440,7 @@
         <v>52</v>
       </c>
       <c r="B347" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C347" t="s">
         <v>199</v>
@@ -6445,7 +6451,7 @@
         <v>52</v>
       </c>
       <c r="B348" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C348" t="s">
         <v>199</v>
@@ -6456,7 +6462,7 @@
         <v>52</v>
       </c>
       <c r="B349" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C349" t="s">
         <v>199</v>
@@ -6467,7 +6473,7 @@
         <v>52</v>
       </c>
       <c r="B350" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C350" t="s">
         <v>199</v>
@@ -6478,7 +6484,7 @@
         <v>52</v>
       </c>
       <c r="B351" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C351" t="s">
         <v>199</v>
@@ -6489,7 +6495,7 @@
         <v>52</v>
       </c>
       <c r="B352" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C352" t="s">
         <v>199</v>
@@ -6500,7 +6506,7 @@
         <v>52</v>
       </c>
       <c r="B353" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C353" t="s">
         <v>199</v>
@@ -6511,7 +6517,7 @@
         <v>52</v>
       </c>
       <c r="B354" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C354" t="s">
         <v>199</v>
@@ -6522,7 +6528,7 @@
         <v>52</v>
       </c>
       <c r="B355" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C355" t="s">
         <v>199</v>
@@ -6533,7 +6539,7 @@
         <v>52</v>
       </c>
       <c r="B356" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C356" t="s">
         <v>199</v>
@@ -6544,7 +6550,7 @@
         <v>52</v>
       </c>
       <c r="B357" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C357" t="s">
         <v>199</v>
@@ -6555,7 +6561,7 @@
         <v>52</v>
       </c>
       <c r="B358" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C358" t="s">
         <v>199</v>
@@ -6566,7 +6572,7 @@
         <v>52</v>
       </c>
       <c r="B359" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C359" t="s">
         <v>199</v>
@@ -6577,7 +6583,7 @@
         <v>52</v>
       </c>
       <c r="B360" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C360" t="s">
         <v>199</v>
@@ -6588,7 +6594,7 @@
         <v>52</v>
       </c>
       <c r="B361" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C361" t="s">
         <v>199</v>
@@ -6599,7 +6605,7 @@
         <v>52</v>
       </c>
       <c r="B362" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C362" t="s">
         <v>199</v>
@@ -6610,7 +6616,7 @@
         <v>52</v>
       </c>
       <c r="B363" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C363" t="s">
         <v>199</v>
@@ -6621,7 +6627,7 @@
         <v>52</v>
       </c>
       <c r="B364" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C364" t="s">
         <v>199</v>
@@ -6632,7 +6638,7 @@
         <v>52</v>
       </c>
       <c r="B365" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C365" t="s">
         <v>199</v>
@@ -6643,7 +6649,7 @@
         <v>52</v>
       </c>
       <c r="B366" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C366" t="s">
         <v>199</v>
@@ -6654,7 +6660,7 @@
         <v>52</v>
       </c>
       <c r="B367" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C367" t="s">
         <v>199</v>
@@ -6665,7 +6671,7 @@
         <v>52</v>
       </c>
       <c r="B368" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C368" t="s">
         <v>199</v>
@@ -6676,7 +6682,7 @@
         <v>52</v>
       </c>
       <c r="B369" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C369" t="s">
         <v>199</v>
@@ -6687,7 +6693,7 @@
         <v>52</v>
       </c>
       <c r="B370" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C370" t="s">
         <v>199</v>
@@ -6698,7 +6704,7 @@
         <v>52</v>
       </c>
       <c r="B371" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C371" t="s">
         <v>199</v>
@@ -6709,7 +6715,7 @@
         <v>52</v>
       </c>
       <c r="B372" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C372" t="s">
         <v>199</v>
@@ -6720,7 +6726,7 @@
         <v>52</v>
       </c>
       <c r="B373" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C373" t="s">
         <v>199</v>
@@ -6731,7 +6737,7 @@
         <v>52</v>
       </c>
       <c r="B374" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C374" t="s">
         <v>199</v>
@@ -6742,7 +6748,7 @@
         <v>52</v>
       </c>
       <c r="B375" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C375" t="s">
         <v>199</v>
@@ -6753,7 +6759,7 @@
         <v>52</v>
       </c>
       <c r="B376" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C376" t="s">
         <v>199</v>
@@ -6764,7 +6770,7 @@
         <v>52</v>
       </c>
       <c r="B377" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C377" t="s">
         <v>199</v>
@@ -6775,7 +6781,7 @@
         <v>52</v>
       </c>
       <c r="B378" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C378" t="s">
         <v>199</v>
@@ -6786,7 +6792,7 @@
         <v>52</v>
       </c>
       <c r="B379" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C379" t="s">
         <v>199</v>
@@ -6797,7 +6803,7 @@
         <v>52</v>
       </c>
       <c r="B380" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C380" t="s">
         <v>199</v>
@@ -6808,7 +6814,7 @@
         <v>52</v>
       </c>
       <c r="B381" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C381" t="s">
         <v>199</v>
@@ -6819,7 +6825,7 @@
         <v>52</v>
       </c>
       <c r="B382" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C382" t="s">
         <v>199</v>
@@ -6830,7 +6836,7 @@
         <v>52</v>
       </c>
       <c r="B383" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C383" t="s">
         <v>199</v>
@@ -6841,7 +6847,7 @@
         <v>52</v>
       </c>
       <c r="B384" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C384" t="s">
         <v>199</v>
@@ -6852,7 +6858,7 @@
         <v>52</v>
       </c>
       <c r="B385" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C385" t="s">
         <v>199</v>
@@ -6863,7 +6869,7 @@
         <v>52</v>
       </c>
       <c r="B386" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C386" t="s">
         <v>199</v>
@@ -6874,7 +6880,7 @@
         <v>52</v>
       </c>
       <c r="B387" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C387" t="s">
         <v>199</v>
@@ -6885,7 +6891,7 @@
         <v>52</v>
       </c>
       <c r="B388" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C388" t="s">
         <v>199</v>
@@ -6896,7 +6902,7 @@
         <v>52</v>
       </c>
       <c r="B389" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C389" t="s">
         <v>199</v>
@@ -6907,7 +6913,7 @@
         <v>52</v>
       </c>
       <c r="B390" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C390" t="s">
         <v>199</v>
@@ -6918,7 +6924,7 @@
         <v>52</v>
       </c>
       <c r="B391" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C391" t="s">
         <v>199</v>
@@ -6929,7 +6935,7 @@
         <v>52</v>
       </c>
       <c r="B392" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C392" t="s">
         <v>199</v>
@@ -6940,7 +6946,7 @@
         <v>52</v>
       </c>
       <c r="B393" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C393" t="s">
         <v>199</v>
@@ -6951,7 +6957,7 @@
         <v>52</v>
       </c>
       <c r="B394" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C394" t="s">
         <v>199</v>
@@ -6962,7 +6968,7 @@
         <v>52</v>
       </c>
       <c r="B395" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C395" t="s">
         <v>199</v>
@@ -6973,7 +6979,7 @@
         <v>52</v>
       </c>
       <c r="B396" t="s">
-        <v>186</v>
+        <v>448</v>
       </c>
       <c r="C396" t="s">
         <v>199</v>
@@ -6984,7 +6990,7 @@
         <v>52</v>
       </c>
       <c r="B397" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C397" t="s">
         <v>199</v>
@@ -6995,7 +7001,7 @@
         <v>52</v>
       </c>
       <c r="B398" t="s">
-        <v>451</v>
+        <v>186</v>
       </c>
       <c r="C398" t="s">
         <v>199</v>
@@ -7006,7 +7012,7 @@
         <v>52</v>
       </c>
       <c r="B399" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C399" t="s">
         <v>199</v>
@@ -7017,7 +7023,7 @@
         <v>52</v>
       </c>
       <c r="B400" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C400" t="s">
         <v>199</v>
@@ -7028,7 +7034,7 @@
         <v>52</v>
       </c>
       <c r="B401" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C401" t="s">
         <v>199</v>
@@ -7039,7 +7045,7 @@
         <v>52</v>
       </c>
       <c r="B402" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C402" t="s">
         <v>199</v>
@@ -7050,15 +7056,37 @@
         <v>52</v>
       </c>
       <c r="B403" t="s">
+        <v>454</v>
+      </c>
+      <c r="C403" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A404" t="s">
+        <v>52</v>
+      </c>
+      <c r="B404" t="s">
+        <v>455</v>
+      </c>
+      <c r="C404" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A405" t="s">
+        <v>52</v>
+      </c>
+      <c r="B405" t="s">
         <v>456</v>
       </c>
-      <c r="C403" t="s">
+      <c r="C405" t="s">
         <v>199</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" autoFilter="0"/>
-  <autoFilter ref="A1:C403" xr:uid="{61D624D3-8580-E34C-882C-FA099DEDDCE5}"/>
+  <autoFilter ref="A1:C405" xr:uid="{61D624D3-8580-E34C-882C-FA099DEDDCE5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>